--- a/python/expdataHISUSSdrainage.xlsx
+++ b/python/expdataHISUSSdrainage.xlsx
@@ -1489,7 +1489,7 @@
         <v>0.01438890327779217</v>
       </c>
       <c r="D2">
-        <v>0.08254241773034748</v>
+        <v>0.08254241773034747</v>
       </c>
       <c r="E2">
         <v>0.2542670963104517</v>
@@ -1934,7 +1934,7 @@
         <v>3.07300192083071</v>
       </c>
       <c r="E28">
-        <v>0.2636857788883799</v>
+        <v>0.2636857788883801</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1951,7 +1951,7 @@
         <v>3.190185516633054</v>
       </c>
       <c r="E29">
-        <v>0.2622923939013571</v>
+        <v>0.2622923939013573</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -2087,7 +2087,7 @@
         <v>3.382010058044334</v>
       </c>
       <c r="E37">
-        <v>0.2568295272038656</v>
+        <v>0.2568295272038659</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -2104,7 +2104,7 @@
         <v>3.442511918370217</v>
       </c>
       <c r="E38">
-        <v>0.2576195235342628</v>
+        <v>0.257619523534263</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -2121,7 +2121,7 @@
         <v>3.392517912689623</v>
       </c>
       <c r="E39">
-        <v>0.2540985319026466</v>
+        <v>0.2540985319026468</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -2305,7 +2305,7 @@
         <v>0.6906673573340241</v>
       </c>
       <c r="D50">
-        <v>3.417877142298798</v>
+        <v>3.417877142298797</v>
       </c>
       <c r="E50">
         <v>0.2596690801590042</v>
@@ -2325,7 +2325,7 @@
         <v>3.494624435148761</v>
       </c>
       <c r="E51">
-        <v>0.2558097389024538</v>
+        <v>0.255809738902454</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -2478,7 +2478,7 @@
         <v>3.441782369245478</v>
       </c>
       <c r="E60">
-        <v>0.2595775485727188</v>
+        <v>0.2595775485727185</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -2611,10 +2611,10 @@
         <v>0.9496676163342832</v>
       </c>
       <c r="D68">
-        <v>3.406887066150269</v>
+        <v>3.406887066150268</v>
       </c>
       <c r="E68">
-        <v>0.2580893224012585</v>
+        <v>0.2580893224012583</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2784,7 +2784,7 @@
         <v>3.842609546293314</v>
       </c>
       <c r="E78">
-        <v>0.2849649475790816</v>
+        <v>0.2849649475790814</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -3070,10 +3070,10 @@
         <v>2.123802123802125</v>
       </c>
       <c r="D95">
-        <v>5.028257205327956</v>
+        <v>5.028257205327963</v>
       </c>
       <c r="E95">
-        <v>0.4267124367158776</v>
+        <v>0.4267124367158778</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -3087,7 +3087,7 @@
         <v>2.267691156580045</v>
       </c>
       <c r="D96">
-        <v>5.102329099432594</v>
+        <v>5.102329099432601</v>
       </c>
       <c r="E96">
         <v>0.4239147421577732</v>
@@ -3104,10 +3104,10 @@
         <v>2.411580189357968</v>
       </c>
       <c r="D97">
-        <v>5.244997656220224</v>
+        <v>5.244997656220231</v>
       </c>
       <c r="E97">
-        <v>0.4167843247288421</v>
+        <v>0.4167843247288424</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -3121,7 +3121,7 @@
         <v>2.555469222135889</v>
       </c>
       <c r="D98">
-        <v>5.220991114447282</v>
+        <v>5.220991114447289</v>
       </c>
       <c r="E98">
         <v>0.4109033427473405</v>
@@ -3138,7 +3138,7 @@
         <v>2.699358254913812</v>
       </c>
       <c r="D99">
-        <v>5.257609950949671</v>
+        <v>5.257609950949679</v>
       </c>
       <c r="E99">
         <v>0.4121647826100899</v>
@@ -3155,7 +3155,7 @@
         <v>2.843247287691733</v>
       </c>
       <c r="D100">
-        <v>5.290491240323516</v>
+        <v>5.290491240323523</v>
       </c>
       <c r="E100">
         <v>0.4071017957703045</v>
@@ -3172,7 +3172,7 @@
         <v>2.987136320469654</v>
       </c>
       <c r="D101">
-        <v>5.366593308627812</v>
+        <v>5.366593308627819</v>
       </c>
       <c r="E101">
         <v>0.4107846793021018</v>
@@ -3189,7 +3189,7 @@
         <v>3.131025353247577</v>
       </c>
       <c r="D102">
-        <v>5.325569223124985</v>
+        <v>5.325569223124992</v>
       </c>
       <c r="E102">
         <v>0.4128497546008257</v>
@@ -3206,7 +3206,7 @@
         <v>3.274914386025498</v>
       </c>
       <c r="D103">
-        <v>5.348738289336204</v>
+        <v>5.348738289336211</v>
       </c>
       <c r="E103">
         <v>0.4106562365008418</v>
@@ -3223,7 +3223,7 @@
         <v>3.418803418803419</v>
       </c>
       <c r="D104">
-        <v>5.355618311065706</v>
+        <v>5.355618311065713</v>
       </c>
       <c r="E104">
         <v>0.4088362742154091</v>
@@ -3532,10 +3532,10 @@
         <v>0.5058296888071141</v>
       </c>
       <c r="M2">
-        <v>0.5095515274443498</v>
+        <v>0.5095515274443497</v>
       </c>
       <c r="N2">
-        <v>0.4881232612425518</v>
+        <v>0.488123261242552</v>
       </c>
       <c r="O2">
         <v>0.4874173021001929</v>
@@ -3600,7 +3600,7 @@
         <v>0.5090385053498641</v>
       </c>
       <c r="L3">
-        <v>0.4999807309750827</v>
+        <v>0.4999807309750828</v>
       </c>
       <c r="M3">
         <v>0.5086578496023169</v>
@@ -3618,16 +3618,16 @@
         <v>0.4157599122246941</v>
       </c>
       <c r="R3">
-        <v>0.3674683642266039</v>
+        <v>0.3674683642266038</v>
       </c>
       <c r="S3">
-        <v>0.3386045826884461</v>
+        <v>0.338604582688446</v>
       </c>
       <c r="T3">
         <v>0.3214638075468391</v>
       </c>
       <c r="U3">
-        <v>0.3358205351992548</v>
+        <v>0.3358205351992549</v>
       </c>
       <c r="V3">
         <v>0.2849677832858031</v>
@@ -3677,7 +3677,7 @@
         <v>0.5104603922301844</v>
       </c>
       <c r="N4">
-        <v>0.4859106803985623</v>
+        <v>0.4859106803985624</v>
       </c>
       <c r="O4">
         <v>0.4906805785101743</v>
@@ -3686,10 +3686,10 @@
         <v>0.4691613511150506</v>
       </c>
       <c r="Q4">
-        <v>0.4333005777329978</v>
+        <v>0.4333005777329976</v>
       </c>
       <c r="R4">
-        <v>0.376935353082745</v>
+        <v>0.3769353530827448</v>
       </c>
       <c r="S4">
         <v>0.345086199549283</v>
@@ -3698,7 +3698,7 @@
         <v>0.3382522752234439</v>
       </c>
       <c r="U4">
-        <v>0.3339858863836895</v>
+        <v>0.3339858863836896</v>
       </c>
       <c r="V4">
         <v>0.2622945312211599</v>
@@ -3742,25 +3742,25 @@
         <v>0.519531725417941</v>
       </c>
       <c r="L5">
-        <v>0.5241096014777131</v>
+        <v>0.5241096014777129</v>
       </c>
       <c r="M5">
         <v>0.4995955693581263</v>
       </c>
       <c r="N5">
-        <v>0.5072042038291587</v>
+        <v>0.5072042038291588</v>
       </c>
       <c r="O5">
         <v>0.4896895544577962</v>
       </c>
       <c r="P5">
-        <v>0.4603372468768088</v>
+        <v>0.4603372468768089</v>
       </c>
       <c r="Q5">
-        <v>0.4238493581627719</v>
+        <v>0.4238493581627718</v>
       </c>
       <c r="R5">
-        <v>0.3989456003308133</v>
+        <v>0.3989456003308134</v>
       </c>
       <c r="S5">
         <v>0.3390892657305376</v>
@@ -3816,13 +3816,13 @@
         <v>0.5108234150336783</v>
       </c>
       <c r="M6">
-        <v>0.4889713514807412</v>
+        <v>0.488971351480741</v>
       </c>
       <c r="N6">
         <v>0.5010753757388935</v>
       </c>
       <c r="O6">
-        <v>0.4833123697895974</v>
+        <v>0.4833123697895972</v>
       </c>
       <c r="P6">
         <v>0.4478672471548628</v>
@@ -3840,7 +3840,7 @@
         <v>0.3222386631996108</v>
       </c>
       <c r="U6">
-        <v>0.3338705783334177</v>
+        <v>0.3338705783334178</v>
       </c>
       <c r="V6">
         <v>0.2838889991895931</v>
@@ -3890,28 +3890,28 @@
         <v>0.4990525714193289</v>
       </c>
       <c r="N7">
-        <v>0.5069920130786044</v>
+        <v>0.5069920130786043</v>
       </c>
       <c r="O7">
         <v>0.4964340503195737</v>
       </c>
       <c r="P7">
-        <v>0.4619310611116234</v>
+        <v>0.4619310611116231</v>
       </c>
       <c r="Q7">
         <v>0.4343967513375095</v>
       </c>
       <c r="R7">
-        <v>0.3830298429210879</v>
+        <v>0.3830298429210878</v>
       </c>
       <c r="S7">
-        <v>0.3420984119784464</v>
+        <v>0.3420984119784465</v>
       </c>
       <c r="T7">
         <v>0.3413016531459568</v>
       </c>
       <c r="U7">
-        <v>0.339521321141598</v>
+        <v>0.3395213211415979</v>
       </c>
       <c r="V7">
         <v>0.2632469189152534</v>
@@ -3955,7 +3955,7 @@
         <v>0.5428419852020776</v>
       </c>
       <c r="L8">
-        <v>0.5129450256548533</v>
+        <v>0.5129450256548534</v>
       </c>
       <c r="M8">
         <v>0.5193878979667433</v>
@@ -3967,19 +3967,19 @@
         <v>0.5012100667579619</v>
       </c>
       <c r="P8">
-        <v>0.4644505868042623</v>
+        <v>0.4644505868042624</v>
       </c>
       <c r="Q8">
         <v>0.4309207199204552</v>
       </c>
       <c r="R8">
-        <v>0.3949387187845736</v>
+        <v>0.3949387187845737</v>
       </c>
       <c r="S8">
-        <v>0.3336617693339436</v>
+        <v>0.3336617693339435</v>
       </c>
       <c r="T8">
-        <v>0.3234850482554617</v>
+        <v>0.3234850482554618</v>
       </c>
       <c r="U8">
         <v>0.3270984260115353</v>
@@ -4041,13 +4041,13 @@
         <v>0.4610701332711117</v>
       </c>
       <c r="Q9">
-        <v>0.4239964182075904</v>
+        <v>0.4239964182075903</v>
       </c>
       <c r="R9">
-        <v>0.3995939691084255</v>
+        <v>0.3995939691084254</v>
       </c>
       <c r="S9">
-        <v>0.3392980685124492</v>
+        <v>0.3392980685124493</v>
       </c>
       <c r="T9">
         <v>0.3458513891154414</v>
@@ -4109,22 +4109,22 @@
         <v>0.5169150095994345</v>
       </c>
       <c r="P10">
-        <v>0.4828319758605246</v>
+        <v>0.4828319758605248</v>
       </c>
       <c r="Q10">
         <v>0.4245389609415309</v>
       </c>
       <c r="R10">
-        <v>0.3988274092094269</v>
+        <v>0.3988274092094268</v>
       </c>
       <c r="S10">
         <v>0.3497638793617186</v>
       </c>
       <c r="T10">
-        <v>0.3454883887954329</v>
+        <v>0.345488388795433</v>
       </c>
       <c r="U10">
-        <v>0.3526964399747267</v>
+        <v>0.3526964399747268</v>
       </c>
       <c r="V10">
         <v>0.2786443982267771</v>
@@ -4168,7 +4168,7 @@
         <v>0.535981381053226</v>
       </c>
       <c r="L11">
-        <v>0.5252226256267718</v>
+        <v>0.5252226256267717</v>
       </c>
       <c r="M11">
         <v>0.5100007096878773</v>
@@ -4180,19 +4180,19 @@
         <v>0.5095634418173829</v>
       </c>
       <c r="P11">
-        <v>0.4697508563613327</v>
+        <v>0.4697508563613326</v>
       </c>
       <c r="Q11">
-        <v>0.4439256890765942</v>
+        <v>0.4439256890765944</v>
       </c>
       <c r="R11">
-        <v>0.3998326220348744</v>
+        <v>0.3998326220348745</v>
       </c>
       <c r="S11">
-        <v>0.3524313377228373</v>
+        <v>0.3524313377228374</v>
       </c>
       <c r="T11">
-        <v>0.3524682699516114</v>
+        <v>0.3524682699516115</v>
       </c>
       <c r="U11">
         <v>0.354620062854688</v>
@@ -4239,10 +4239,10 @@
         <v>0.5582712744125093</v>
       </c>
       <c r="L12">
-        <v>0.5241799691341955</v>
+        <v>0.5241799691341954</v>
       </c>
       <c r="M12">
-        <v>0.5208239007242214</v>
+        <v>0.5208239007242215</v>
       </c>
       <c r="N12">
         <v>0.5131594697726167</v>
@@ -4254,16 +4254,16 @@
         <v>0.4938345773634271</v>
       </c>
       <c r="Q12">
-        <v>0.4304245581140615</v>
+        <v>0.4304245581140613</v>
       </c>
       <c r="R12">
-        <v>0.4050542483990868</v>
+        <v>0.4050542483990869</v>
       </c>
       <c r="S12">
-        <v>0.3703326823550619</v>
+        <v>0.3703326823550618</v>
       </c>
       <c r="T12">
-        <v>0.3458872111528429</v>
+        <v>0.345887211152843</v>
       </c>
       <c r="U12">
         <v>0.3495694304947202</v>
@@ -4310,10 +4310,10 @@
         <v>0.56810570668272</v>
       </c>
       <c r="L13">
-        <v>0.5469236111569769</v>
+        <v>0.546923611156977</v>
       </c>
       <c r="M13">
-        <v>0.5209143893503246</v>
+        <v>0.5209143893503244</v>
       </c>
       <c r="N13">
         <v>0.5255029107154962</v>
@@ -4393,10 +4393,10 @@
         <v>0.5210630178247617</v>
       </c>
       <c r="P14">
-        <v>0.4780725114413846</v>
+        <v>0.4780725114413847</v>
       </c>
       <c r="Q14">
-        <v>0.4411779137524151</v>
+        <v>0.441177913752415</v>
       </c>
       <c r="R14">
         <v>0.4090552357938025</v>
@@ -4405,10 +4405,10 @@
         <v>0.3504327250822666</v>
       </c>
       <c r="T14">
-        <v>0.3580655000093438</v>
+        <v>0.3580655000093437</v>
       </c>
       <c r="U14">
-        <v>0.3639690286989629</v>
+        <v>0.3639690286989628</v>
       </c>
       <c r="V14">
         <v>0.3008723852941912</v>
@@ -4452,7 +4452,7 @@
         <v>0.5713480245694826</v>
       </c>
       <c r="L15">
-        <v>0.5472957096051404</v>
+        <v>0.5472957096051403</v>
       </c>
       <c r="M15">
         <v>0.5264001454791515</v>
@@ -4461,19 +4461,19 @@
         <v>0.5105068762355256</v>
       </c>
       <c r="O15">
-        <v>0.521145091017968</v>
+        <v>0.5211450910179681</v>
       </c>
       <c r="P15">
         <v>0.4995986593586371</v>
       </c>
       <c r="Q15">
-        <v>0.4686202111512067</v>
+        <v>0.4686202111512068</v>
       </c>
       <c r="R15">
-        <v>0.4129918792348222</v>
+        <v>0.4129918792348221</v>
       </c>
       <c r="S15">
-        <v>0.3657957137043451</v>
+        <v>0.3657957137043453</v>
       </c>
       <c r="T15">
         <v>0.3403883320723147</v>
@@ -4523,34 +4523,34 @@
         <v>0.5749885719466398</v>
       </c>
       <c r="L16">
-        <v>0.5636949705307517</v>
+        <v>0.5636949705307519</v>
       </c>
       <c r="M16">
         <v>0.5249021547998876</v>
       </c>
       <c r="N16">
-        <v>0.5135957548572058</v>
+        <v>0.5135957548572059</v>
       </c>
       <c r="O16">
-        <v>0.5316477115419486</v>
+        <v>0.5316477115419487</v>
       </c>
       <c r="P16">
-        <v>0.5024969811193233</v>
+        <v>0.5024969811193232</v>
       </c>
       <c r="Q16">
-        <v>0.4515989035802733</v>
+        <v>0.4515989035802734</v>
       </c>
       <c r="R16">
         <v>0.4181541119603467</v>
       </c>
       <c r="S16">
-        <v>0.3762438004300266</v>
+        <v>0.3762438004300265</v>
       </c>
       <c r="T16">
         <v>0.3576014363784861</v>
       </c>
       <c r="U16">
-        <v>0.3539365951771588</v>
+        <v>0.3539365951771589</v>
       </c>
       <c r="V16">
         <v>0.3068800266727268</v>
@@ -4600,7 +4600,7 @@
         <v>0.5259994489706815</v>
       </c>
       <c r="N17">
-        <v>0.5277525185143511</v>
+        <v>0.527752518514351</v>
       </c>
       <c r="O17">
         <v>0.5433621504285774</v>
@@ -4609,7 +4609,7 @@
         <v>0.5030008270823261</v>
       </c>
       <c r="Q17">
-        <v>0.4738041378649476</v>
+        <v>0.4738041378649475</v>
       </c>
       <c r="R17">
         <v>0.4450496984976238</v>
@@ -4665,7 +4665,7 @@
         <v>0.5625297640189013</v>
       </c>
       <c r="L18">
-        <v>0.5663217108230431</v>
+        <v>0.5663217108230432</v>
       </c>
       <c r="M18">
         <v>0.5297998725492986</v>
@@ -4674,19 +4674,19 @@
         <v>0.5301118420308949</v>
       </c>
       <c r="O18">
-        <v>0.5225265480646175</v>
+        <v>0.5225265480646176</v>
       </c>
       <c r="P18">
-        <v>0.5109125635113422</v>
+        <v>0.5109125635113423</v>
       </c>
       <c r="Q18">
         <v>0.4685178502188274</v>
       </c>
       <c r="R18">
-        <v>0.4473700782602443</v>
+        <v>0.4473700782602442</v>
       </c>
       <c r="S18">
-        <v>0.3879318846968317</v>
+        <v>0.3879318846968315</v>
       </c>
       <c r="T18">
         <v>0.3761862213563713</v>
@@ -4742,13 +4742,13 @@
         <v>0.5283578870091015</v>
       </c>
       <c r="N19">
-        <v>0.5484982331978292</v>
+        <v>0.5484982331978291</v>
       </c>
       <c r="O19">
-        <v>0.5424251081816087</v>
+        <v>0.5424251081816085</v>
       </c>
       <c r="P19">
-        <v>0.5232996387029624</v>
+        <v>0.5232996387029625</v>
       </c>
       <c r="Q19">
         <v>0.4556753608177075</v>
@@ -4757,13 +4757,13 @@
         <v>0.4544015438125766</v>
       </c>
       <c r="S19">
-        <v>0.3648990913122172</v>
+        <v>0.3648990913122173</v>
       </c>
       <c r="T19">
         <v>0.3688447745493</v>
       </c>
       <c r="U19">
-        <v>0.3674089829849768</v>
+        <v>0.3674089829849767</v>
       </c>
       <c r="V19">
         <v>0.3152494021756672</v>
@@ -4807,25 +4807,25 @@
         <v>0.5955339140284163</v>
       </c>
       <c r="L20">
-        <v>0.5563511452293135</v>
+        <v>0.5563511452293134</v>
       </c>
       <c r="M20">
-        <v>0.5599650586684572</v>
+        <v>0.5599650586684574</v>
       </c>
       <c r="N20">
-        <v>0.5280706276314899</v>
+        <v>0.5280706276314898</v>
       </c>
       <c r="O20">
         <v>0.536758730809172</v>
       </c>
       <c r="P20">
-        <v>0.5229809480925763</v>
+        <v>0.5229809480925762</v>
       </c>
       <c r="Q20">
-        <v>0.4645081921380406</v>
+        <v>0.4645081921380405</v>
       </c>
       <c r="R20">
-        <v>0.4581522386491728</v>
+        <v>0.4581522386491727</v>
       </c>
       <c r="S20">
         <v>0.3900340807753316</v>
@@ -4878,10 +4878,10 @@
         <v>0.603075367688459</v>
       </c>
       <c r="L21">
-        <v>0.5609135732613978</v>
+        <v>0.5609135732613979</v>
       </c>
       <c r="M21">
-        <v>0.5641022239366241</v>
+        <v>0.5641022239366242</v>
       </c>
       <c r="N21">
         <v>0.5488749801336901</v>
@@ -4893,22 +4893,22 @@
         <v>0.5238917443530511</v>
       </c>
       <c r="Q21">
-        <v>0.4727052721494341</v>
+        <v>0.472705272149434</v>
       </c>
       <c r="R21">
         <v>0.4353892289341297</v>
       </c>
       <c r="S21">
-        <v>0.3798453015483329</v>
+        <v>0.379845301548333</v>
       </c>
       <c r="T21">
         <v>0.3667509475184871</v>
       </c>
       <c r="U21">
-        <v>0.3692855391456817</v>
+        <v>0.3692855391456815</v>
       </c>
       <c r="V21">
-        <v>0.3036569566586655</v>
+        <v>0.3036569566586654</v>
       </c>
       <c r="W21">
         <v>0.3142436901140663</v>
@@ -4952,16 +4952,16 @@
         <v>0.5910420692121271</v>
       </c>
       <c r="M22">
-        <v>0.5417571747844326</v>
+        <v>0.5417571747844327</v>
       </c>
       <c r="N22">
-        <v>0.5598551963418713</v>
+        <v>0.5598551963418712</v>
       </c>
       <c r="O22">
         <v>0.5399519329493462</v>
       </c>
       <c r="P22">
-        <v>0.5216171294506831</v>
+        <v>0.5216171294506829</v>
       </c>
       <c r="Q22">
         <v>0.4777278432983723</v>
@@ -4979,7 +4979,7 @@
         <v>0.3790639265358187</v>
       </c>
       <c r="V22">
-        <v>0.3099725687622576</v>
+        <v>0.3099725687622577</v>
       </c>
       <c r="W22">
         <v>0.3102621330098502</v>
@@ -5035,7 +5035,7 @@
         <v>0.5204355704707341</v>
       </c>
       <c r="Q23">
-        <v>0.4864632505043778</v>
+        <v>0.4864632505043779</v>
       </c>
       <c r="R23">
         <v>0.4527897782307325</v>
@@ -5044,13 +5044,13 @@
         <v>0.3989024124091067</v>
       </c>
       <c r="T23">
-        <v>0.383711861229129</v>
+        <v>0.3837118612291289</v>
       </c>
       <c r="U23">
         <v>0.3931140182876962</v>
       </c>
       <c r="V23">
-        <v>0.3179534825835641</v>
+        <v>0.3179534825835642</v>
       </c>
       <c r="W23">
         <v>0.3284822120904754</v>
@@ -5091,31 +5091,31 @@
         <v>0.5987231944470827</v>
       </c>
       <c r="L24">
-        <v>0.5864954030740983</v>
+        <v>0.5864954030740982</v>
       </c>
       <c r="M24">
         <v>0.5596224375946505</v>
       </c>
       <c r="N24">
-        <v>0.5669418633235138</v>
+        <v>0.5669418633235137</v>
       </c>
       <c r="O24">
-        <v>0.5427863833975536</v>
+        <v>0.5427863833975537</v>
       </c>
       <c r="P24">
-        <v>0.523912847449948</v>
+        <v>0.5239128474499481</v>
       </c>
       <c r="Q24">
-        <v>0.4918790448838144</v>
+        <v>0.4918790448838145</v>
       </c>
       <c r="R24">
-        <v>0.4716308693755015</v>
+        <v>0.4716308693755016</v>
       </c>
       <c r="S24">
         <v>0.4122768059574201</v>
       </c>
       <c r="T24">
-        <v>0.3825981483628048</v>
+        <v>0.3825981483628049</v>
       </c>
       <c r="U24">
         <v>0.38365374978228</v>
@@ -5168,7 +5168,7 @@
         <v>0.5746426970393983</v>
       </c>
       <c r="N25">
-        <v>0.5484245321947957</v>
+        <v>0.5484245321947956</v>
       </c>
       <c r="O25">
         <v>0.5574404077236789</v>
@@ -5177,19 +5177,19 @@
         <v>0.5290976603425913</v>
       </c>
       <c r="Q25">
-        <v>0.487768742289554</v>
+        <v>0.4877687422895541</v>
       </c>
       <c r="R25">
-        <v>0.4804125909572216</v>
+        <v>0.4804125909572217</v>
       </c>
       <c r="S25">
         <v>0.3917029955414621</v>
       </c>
       <c r="T25">
-        <v>0.3868498876855128</v>
+        <v>0.3868498876855129</v>
       </c>
       <c r="U25">
-        <v>0.378505142277025</v>
+        <v>0.3785051422770249</v>
       </c>
       <c r="V25">
         <v>0.336137799609545</v>
@@ -5236,22 +5236,22 @@
         <v>0.5974162782051855</v>
       </c>
       <c r="M26">
-        <v>0.5810318826123301</v>
+        <v>0.5810318826123302</v>
       </c>
       <c r="N26">
-        <v>0.5516582895741422</v>
+        <v>0.5516582895741424</v>
       </c>
       <c r="O26">
         <v>0.5659373345856796</v>
       </c>
       <c r="P26">
-        <v>0.5539353008241376</v>
+        <v>0.5539353008241374</v>
       </c>
       <c r="Q26">
         <v>0.4857624652340009</v>
       </c>
       <c r="R26">
-        <v>0.4778618164404828</v>
+        <v>0.4778618164404826</v>
       </c>
       <c r="S26">
         <v>0.4087171572973599</v>
@@ -5260,7 +5260,7 @@
         <v>0.3861059512808364</v>
       </c>
       <c r="U26">
-        <v>0.3899550402469254</v>
+        <v>0.3899550402469255</v>
       </c>
       <c r="V26">
         <v>0.3256890744675325</v>
@@ -5307,7 +5307,7 @@
         <v>0.6106195288471239</v>
       </c>
       <c r="M27">
-        <v>0.5609209263009859</v>
+        <v>0.560920926300986</v>
       </c>
       <c r="N27">
         <v>0.5602033200026489</v>
@@ -5316,7 +5316,7 @@
         <v>0.5610632600990966</v>
       </c>
       <c r="P27">
-        <v>0.5361139777634385</v>
+        <v>0.5361139777634384</v>
       </c>
       <c r="Q27">
         <v>0.5093054200746983</v>
@@ -5381,22 +5381,22 @@
         <v>0.5738089910688595</v>
       </c>
       <c r="N28">
-        <v>0.5738536061180163</v>
+        <v>0.5738536061180162</v>
       </c>
       <c r="O28">
         <v>0.5712134742227218</v>
       </c>
       <c r="P28">
-        <v>0.5412509663910555</v>
+        <v>0.5412509663910556</v>
       </c>
       <c r="Q28">
         <v>0.5075125058120014</v>
       </c>
       <c r="R28">
-        <v>0.4834231207885711</v>
+        <v>0.4834231207885712</v>
       </c>
       <c r="S28">
-        <v>0.4303244250821319</v>
+        <v>0.4303244250821318</v>
       </c>
       <c r="T28">
         <v>0.4175990011818408</v>
@@ -5452,28 +5452,28 @@
         <v>0.5865909889012448</v>
       </c>
       <c r="N29">
-        <v>0.582705936061764</v>
+        <v>0.5827059360617641</v>
       </c>
       <c r="O29">
         <v>0.5767766167708297</v>
       </c>
       <c r="P29">
-        <v>0.5437850382486631</v>
+        <v>0.543785038248663</v>
       </c>
       <c r="Q29">
         <v>0.5197822043316592</v>
       </c>
       <c r="R29">
-        <v>0.487766311193842</v>
+        <v>0.4877663111938421</v>
       </c>
       <c r="S29">
-        <v>0.4096037607474486</v>
+        <v>0.4096037607474488</v>
       </c>
       <c r="T29">
-        <v>0.4196935738888765</v>
+        <v>0.4196935738888763</v>
       </c>
       <c r="U29">
-        <v>0.4034327278477527</v>
+        <v>0.4034327278477529</v>
       </c>
       <c r="V29">
         <v>0.3415775295329554</v>
@@ -5526,25 +5526,25 @@
         <v>0.591770402875585</v>
       </c>
       <c r="O30">
-        <v>0.5877700803084057</v>
+        <v>0.5877700803084056</v>
       </c>
       <c r="P30">
-        <v>0.5711424116601461</v>
+        <v>0.5711424116601462</v>
       </c>
       <c r="Q30">
         <v>0.5219505569992816</v>
       </c>
       <c r="R30">
-        <v>0.5064540994335127</v>
+        <v>0.5064540994335128</v>
       </c>
       <c r="S30">
-        <v>0.4392981482042166</v>
+        <v>0.4392981482042167</v>
       </c>
       <c r="T30">
         <v>0.4164040098919242</v>
       </c>
       <c r="U30">
-        <v>0.431221216306993</v>
+        <v>0.4312212163069931</v>
       </c>
       <c r="V30">
         <v>0.3392875267396261</v>
@@ -5594,13 +5594,13 @@
         <v>0.6106962466869821</v>
       </c>
       <c r="N31">
-        <v>0.5970956376508187</v>
+        <v>0.5970956376508189</v>
       </c>
       <c r="O31">
         <v>0.5908990794656406</v>
       </c>
       <c r="P31">
-        <v>0.5548516616856483</v>
+        <v>0.5548516616856481</v>
       </c>
       <c r="Q31">
         <v>0.5106632699600402</v>
@@ -5609,19 +5609,19 @@
         <v>0.4963073202067799</v>
       </c>
       <c r="S31">
-        <v>0.435564021793719</v>
+        <v>0.4355640217937189</v>
       </c>
       <c r="T31">
-        <v>0.4329741381516455</v>
+        <v>0.4329741381516454</v>
       </c>
       <c r="U31">
         <v>0.4196278613079851</v>
       </c>
       <c r="V31">
-        <v>0.3629749655550106</v>
+        <v>0.3629749655550107</v>
       </c>
       <c r="W31">
-        <v>0.3611617181119257</v>
+        <v>0.3611617181119256</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -5674,25 +5674,25 @@
         <v>0.5891572576837405</v>
       </c>
       <c r="Q32">
-        <v>0.5414718277220356</v>
+        <v>0.5414718277220358</v>
       </c>
       <c r="R32">
         <v>0.4923801586527672</v>
       </c>
       <c r="S32">
-        <v>0.4548916470551173</v>
+        <v>0.4548916470551172</v>
       </c>
       <c r="T32">
-        <v>0.4202880898095367</v>
+        <v>0.4202880898095368</v>
       </c>
       <c r="U32">
-        <v>0.4309871481349356</v>
+        <v>0.4309871481349357</v>
       </c>
       <c r="V32">
         <v>0.3739966980272872</v>
       </c>
       <c r="W32">
-        <v>0.3591509924704344</v>
+        <v>0.3591509924704345</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -5730,19 +5730,19 @@
         <v>0.6520458308404715</v>
       </c>
       <c r="L33">
-        <v>0.6431437083912589</v>
+        <v>0.6431437083912588</v>
       </c>
       <c r="M33">
         <v>0.6089920800663429</v>
       </c>
       <c r="N33">
-        <v>0.6121869247979663</v>
+        <v>0.6121869247979664</v>
       </c>
       <c r="O33">
         <v>0.6009170750924868</v>
       </c>
       <c r="P33">
-        <v>0.5971884729355103</v>
+        <v>0.59718847293551</v>
       </c>
       <c r="Q33">
         <v>0.5470833618826039</v>
@@ -5751,10 +5751,10 @@
         <v>0.5026242826320412</v>
       </c>
       <c r="S33">
-        <v>0.4371583170585402</v>
+        <v>0.4371583170585404</v>
       </c>
       <c r="T33">
-        <v>0.429162280016454</v>
+        <v>0.4291622800164541</v>
       </c>
       <c r="U33">
         <v>0.4450601931651799</v>
@@ -5801,10 +5801,10 @@
         <v>0.6744050251694285</v>
       </c>
       <c r="L34">
-        <v>0.6321984732602325</v>
+        <v>0.6321984732602324</v>
       </c>
       <c r="M34">
-        <v>0.6023868780806282</v>
+        <v>0.6023868780806281</v>
       </c>
       <c r="N34">
         <v>0.5951322171371903</v>
@@ -5819,16 +5819,16 @@
         <v>0.5429123079641437</v>
       </c>
       <c r="R34">
-        <v>0.5237799287699562</v>
+        <v>0.5237799287699563</v>
       </c>
       <c r="S34">
-        <v>0.448488915344782</v>
+        <v>0.4484889153447819</v>
       </c>
       <c r="T34">
-        <v>0.448353666861831</v>
+        <v>0.4483536668618309</v>
       </c>
       <c r="U34">
-        <v>0.4304481873438276</v>
+        <v>0.4304481873438273</v>
       </c>
       <c r="V34">
         <v>0.3614023199419128</v>
@@ -5875,7 +5875,7 @@
         <v>0.6510105501093152</v>
       </c>
       <c r="M35">
-        <v>0.6161803363155628</v>
+        <v>0.6161803363155627</v>
       </c>
       <c r="N35">
         <v>0.6260602550476201</v>
@@ -5884,28 +5884,28 @@
         <v>0.6142017549867097</v>
       </c>
       <c r="P35">
-        <v>0.582519430359291</v>
+        <v>0.5825194303592911</v>
       </c>
       <c r="Q35">
-        <v>0.5620366419511192</v>
+        <v>0.5620366419511194</v>
       </c>
       <c r="R35">
         <v>0.5228948139977169</v>
       </c>
       <c r="S35">
-        <v>0.4644297528101989</v>
+        <v>0.4644297528101988</v>
       </c>
       <c r="T35">
-        <v>0.4415094637563594</v>
+        <v>0.4415094637563592</v>
       </c>
       <c r="U35">
-        <v>0.4499328251574954</v>
+        <v>0.4499328251574953</v>
       </c>
       <c r="V35">
         <v>0.3660032228595796</v>
       </c>
       <c r="W35">
-        <v>0.3759125040561449</v>
+        <v>0.3759125040561448</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -5946,10 +5946,10 @@
         <v>0.6632569211443361</v>
       </c>
       <c r="M36">
-        <v>0.6166996417415191</v>
+        <v>0.6166996417415193</v>
       </c>
       <c r="N36">
-        <v>0.6350916725261403</v>
+        <v>0.6350916725261402</v>
       </c>
       <c r="O36">
         <v>0.6156885130871208</v>
@@ -5970,10 +5970,10 @@
         <v>0.4675913548295834</v>
       </c>
       <c r="U36">
-        <v>0.4583399388434585</v>
+        <v>0.4583399388434586</v>
       </c>
       <c r="V36">
-        <v>0.3900877259839652</v>
+        <v>0.3900877259839653</v>
       </c>
       <c r="W36">
         <v>0.3856322601007482</v>
@@ -6014,7 +6014,7 @@
         <v>0.7105775643949785</v>
       </c>
       <c r="L37">
-        <v>0.6687875193006947</v>
+        <v>0.6687875193006948</v>
       </c>
       <c r="M37">
         <v>0.6486068899665788</v>
@@ -6026,13 +6026,13 @@
         <v>0.6177493434361723</v>
       </c>
       <c r="P37">
-        <v>0.6034026164624013</v>
+        <v>0.6034026164624012</v>
       </c>
       <c r="Q37">
         <v>0.5676387018948025</v>
       </c>
       <c r="R37">
-        <v>0.5433339271730812</v>
+        <v>0.5433339271730813</v>
       </c>
       <c r="S37">
         <v>0.4708273606774123</v>
@@ -6044,10 +6044,10 @@
         <v>0.4565935502075472</v>
       </c>
       <c r="V37">
-        <v>0.404832542639344</v>
+        <v>0.4048325426393441</v>
       </c>
       <c r="W37">
-        <v>0.4007909296901546</v>
+        <v>0.4007909296901545</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -6100,7 +6100,7 @@
         <v>0.6221335986575874</v>
       </c>
       <c r="Q38">
-        <v>0.576812286782693</v>
+        <v>0.5768122867826929</v>
       </c>
       <c r="R38">
         <v>0.5402890068989156</v>
@@ -6109,13 +6109,13 @@
         <v>0.4954813717711822</v>
       </c>
       <c r="T38">
-        <v>0.4941127341578576</v>
+        <v>0.4941127341578577</v>
       </c>
       <c r="U38">
-        <v>0.4872121532582643</v>
+        <v>0.4872121532582642</v>
       </c>
       <c r="V38">
-        <v>0.4195071401601895</v>
+        <v>0.4195071401601894</v>
       </c>
       <c r="W38">
         <v>0.4145447814626348</v>
@@ -6171,13 +6171,13 @@
         <v>0.6349721677443324</v>
       </c>
       <c r="Q39">
-        <v>0.5797688669262421</v>
+        <v>0.579768866926242</v>
       </c>
       <c r="R39">
         <v>0.5665931594664494</v>
       </c>
       <c r="S39">
-        <v>0.5010961199055172</v>
+        <v>0.5010961199055171</v>
       </c>
       <c r="T39">
         <v>0.4971011090654105</v>
@@ -6189,7 +6189,7 @@
         <v>0.4047617986191948</v>
       </c>
       <c r="W39">
-        <v>0.421210917717858</v>
+        <v>0.4212109177178581</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -6233,7 +6233,7 @@
         <v>0.6579831681152839</v>
       </c>
       <c r="N40">
-        <v>0.6571549263958322</v>
+        <v>0.6571549263958321</v>
       </c>
       <c r="O40">
         <v>0.656857776332615</v>
@@ -6316,7 +6316,7 @@
         <v>0.5981418602825328</v>
       </c>
       <c r="R41">
-        <v>0.5853449081778788</v>
+        <v>0.5853449081778789</v>
       </c>
       <c r="S41">
         <v>0.5350996235206009</v>
@@ -6325,7 +6325,7 @@
         <v>0.5204763540226551</v>
       </c>
       <c r="U41">
-        <v>0.516084708584562</v>
+        <v>0.5160847085845621</v>
       </c>
       <c r="V41">
         <v>0.4406237962603132</v>
@@ -6387,7 +6387,7 @@
         <v>0.6303157452074223</v>
       </c>
       <c r="R42">
-        <v>0.6104366461885007</v>
+        <v>0.6104366461885006</v>
       </c>
       <c r="S42">
         <v>0.5456285965671512</v>
@@ -6458,19 +6458,19 @@
         <v>0.6547352878501991</v>
       </c>
       <c r="R43">
-        <v>0.6289344356791085</v>
+        <v>0.6289344356791083</v>
       </c>
       <c r="S43">
         <v>0.5482712307598329</v>
       </c>
       <c r="T43">
-        <v>0.5379707689051912</v>
+        <v>0.5379707689051914</v>
       </c>
       <c r="U43">
         <v>0.5421276528180131</v>
       </c>
       <c r="V43">
-        <v>0.4677748335137318</v>
+        <v>0.4677748335137317</v>
       </c>
       <c r="W43">
         <v>0.4638385591830372</v>
@@ -6529,7 +6529,7 @@
         <v>0.6712510446948194</v>
       </c>
       <c r="R44">
-        <v>0.6260292273850719</v>
+        <v>0.6260292273850718</v>
       </c>
       <c r="S44">
         <v>0.5775851910434989</v>
@@ -6538,13 +6538,13 @@
         <v>0.5591988226510695</v>
       </c>
       <c r="U44">
-        <v>0.5774132969439264</v>
+        <v>0.5774132969439265</v>
       </c>
       <c r="V44">
         <v>0.5083332313890487</v>
       </c>
       <c r="W44">
-        <v>0.4937515928514591</v>
+        <v>0.4937515928514593</v>
       </c>
     </row>
     <row r="45" spans="1:23">
@@ -6597,10 +6597,10 @@
         <v>0.7149582657712805</v>
       </c>
       <c r="Q45">
-        <v>0.6696478738825816</v>
+        <v>0.6696478738825817</v>
       </c>
       <c r="R45">
-        <v>0.6551509495336435</v>
+        <v>0.6551509495336434</v>
       </c>
       <c r="S45">
         <v>0.5909102709393455</v>
@@ -6609,7 +6609,7 @@
         <v>0.5944311617965498</v>
       </c>
       <c r="U45">
-        <v>0.5963792541255821</v>
+        <v>0.596379254125582</v>
       </c>
       <c r="V45">
         <v>0.5251875575895789</v>
@@ -6677,7 +6677,7 @@
         <v>0.6314379329259888</v>
       </c>
       <c r="T46">
-        <v>0.6387617947427402</v>
+        <v>0.6387617947427403</v>
       </c>
       <c r="U46">
         <v>0.6321138083851513</v>
@@ -6686,7 +6686,7 @@
         <v>0.5658597484472347</v>
       </c>
       <c r="W46">
-        <v>0.5721998015096412</v>
+        <v>0.5721998015096413</v>
       </c>
     </row>
     <row r="47" spans="1:23">
@@ -6745,19 +6745,19 @@
         <v>0.7171552060578203</v>
       </c>
       <c r="S47">
-        <v>0.6878510759348595</v>
+        <v>0.6878510759348596</v>
       </c>
       <c r="T47">
         <v>0.6743013754736756</v>
       </c>
       <c r="U47">
-        <v>0.680724397528937</v>
+        <v>0.6807243975289371</v>
       </c>
       <c r="V47">
         <v>0.620067764211726</v>
       </c>
       <c r="W47">
-        <v>0.6177526642111127</v>
+        <v>0.6177526642111126</v>
       </c>
     </row>
     <row r="48" spans="1:23">
@@ -6825,7 +6825,7 @@
         <v>0.7253942272611545</v>
       </c>
       <c r="V48">
-        <v>0.6678579699899146</v>
+        <v>0.6678579699899148</v>
       </c>
       <c r="W48">
         <v>0.6579216442233343</v>
@@ -6866,7 +6866,7 @@
         <v>0.9317141099470206</v>
       </c>
       <c r="L49">
-        <v>0.8839588887378526</v>
+        <v>0.8839588887378527</v>
       </c>
       <c r="M49">
         <v>0.8529344488953738</v>
@@ -6884,7 +6884,7 @@
         <v>0.8205395766151308</v>
       </c>
       <c r="R49">
-        <v>0.8133293765025241</v>
+        <v>0.813329376502524</v>
       </c>
       <c r="S49">
         <v>0.7942330302441523</v>
@@ -6896,7 +6896,7 @@
         <v>0.7696237160849441</v>
       </c>
       <c r="V49">
-        <v>0.7445860710485952</v>
+        <v>0.7445860710485953</v>
       </c>
       <c r="W49">
         <v>0.7417909260102273</v>

--- a/python/expdataHISUSSdrainage.xlsx
+++ b/python/expdataHISUSSdrainage.xlsx
@@ -1489,7 +1489,7 @@
         <v>0.01438890327779217</v>
       </c>
       <c r="D2">
-        <v>0.08254241773034748</v>
+        <v>0.08254241773034747</v>
       </c>
       <c r="E2">
         <v>0.2542670963104517</v>
@@ -1883,7 +1883,7 @@
         <v>2.86493064529572</v>
       </c>
       <c r="E25">
-        <v>0.3275482327495782</v>
+        <v>0.3275482327495784</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1900,7 +1900,7 @@
         <v>2.942191774348188</v>
       </c>
       <c r="E26">
-        <v>0.2931940694108772</v>
+        <v>0.2931940694108769</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1917,7 +1917,7 @@
         <v>2.979739316910127</v>
       </c>
       <c r="E27">
-        <v>0.2779265887849712</v>
+        <v>0.2779265887849708</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1934,7 +1934,7 @@
         <v>3.07300192083071</v>
       </c>
       <c r="E28">
-        <v>0.2636857788883799</v>
+        <v>0.2636857788883796</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -2033,10 +2033,10 @@
         <v>0.4604449048893494</v>
       </c>
       <c r="D34">
-        <v>3.337906401264589</v>
+        <v>3.337906401264588</v>
       </c>
       <c r="E34">
-        <v>0.2539106752490086</v>
+        <v>0.2539106752490084</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -2050,10 +2050,10 @@
         <v>0.4748338081671416</v>
       </c>
       <c r="D35">
-        <v>3.365770571169646</v>
+        <v>3.365770571169643</v>
       </c>
       <c r="E35">
-        <v>0.2566195921214255</v>
+        <v>0.2566195921214253</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -2067,7 +2067,7 @@
         <v>0.4892227114449338</v>
       </c>
       <c r="D36">
-        <v>3.321663174849919</v>
+        <v>3.321663174849915</v>
       </c>
       <c r="E36">
         <v>0.2548806128217777</v>
@@ -2084,7 +2084,7 @@
         <v>0.503611614722726</v>
       </c>
       <c r="D37">
-        <v>3.382010058044334</v>
+        <v>3.38201005804433</v>
       </c>
       <c r="E37">
         <v>0.2568295272038656</v>
@@ -2101,10 +2101,10 @@
         <v>0.5180005180005181</v>
       </c>
       <c r="D38">
-        <v>3.442511918370217</v>
+        <v>3.442511918370213</v>
       </c>
       <c r="E38">
-        <v>0.2576195235342628</v>
+        <v>0.257619523534263</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -2118,7 +2118,7 @@
         <v>0.5323894212783102</v>
       </c>
       <c r="D39">
-        <v>3.392517912689623</v>
+        <v>3.39251791268962</v>
       </c>
       <c r="E39">
         <v>0.2540985319026466</v>
@@ -2135,7 +2135,7 @@
         <v>0.5467783245561024</v>
       </c>
       <c r="D40">
-        <v>3.37357894129707</v>
+        <v>3.373578941297067</v>
       </c>
       <c r="E40">
         <v>0.2557201688197455</v>
@@ -2152,7 +2152,7 @@
         <v>0.5611672278338946</v>
       </c>
       <c r="D41">
-        <v>3.415915648803499</v>
+        <v>3.415915648803495</v>
       </c>
       <c r="E41">
         <v>0.2606790650883682</v>
@@ -2169,7 +2169,7 @@
         <v>0.5755561311116868</v>
       </c>
       <c r="D42">
-        <v>3.47041577936058</v>
+        <v>3.470415779360577</v>
       </c>
       <c r="E42">
         <v>0.2579007860885206</v>
@@ -2186,7 +2186,7 @@
         <v>0.589945034389479</v>
       </c>
       <c r="D43">
-        <v>3.414782355556937</v>
+        <v>3.414782355556933</v>
       </c>
       <c r="E43">
         <v>0.2570504525362719</v>
@@ -2203,7 +2203,7 @@
         <v>0.6043339376672711</v>
       </c>
       <c r="D44">
-        <v>3.463307839632535</v>
+        <v>3.463307839632532</v>
       </c>
       <c r="E44">
         <v>0.2593846628699273</v>
@@ -2220,7 +2220,7 @@
         <v>0.6187228409450632</v>
       </c>
       <c r="D45">
-        <v>3.46669420005483</v>
+        <v>3.466694200054827</v>
       </c>
       <c r="E45">
         <v>0.2593100800995491</v>
@@ -2237,7 +2237,7 @@
         <v>0.6331117442228554</v>
       </c>
       <c r="D46">
-        <v>3.412067982100167</v>
+        <v>3.412067982100164</v>
       </c>
       <c r="E46">
         <v>0.2539043252274685</v>
@@ -2254,7 +2254,7 @@
         <v>0.6475006475006476</v>
       </c>
       <c r="D47">
-        <v>3.437338426798298</v>
+        <v>3.437338426798295</v>
       </c>
       <c r="E47">
         <v>0.2590772290528048</v>
@@ -2271,7 +2271,7 @@
         <v>0.6618895507784398</v>
       </c>
       <c r="D48">
-        <v>3.465835799029704</v>
+        <v>3.465835799029701</v>
       </c>
       <c r="E48">
         <v>0.2601081867074481</v>
@@ -2288,10 +2288,10 @@
         <v>0.676278454056232</v>
       </c>
       <c r="D49">
-        <v>3.43782846796403</v>
+        <v>3.437828467964026</v>
       </c>
       <c r="E49">
-        <v>0.2548531612322921</v>
+        <v>0.2548531612322923</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -2305,7 +2305,7 @@
         <v>0.6906673573340241</v>
       </c>
       <c r="D50">
-        <v>3.417877142298798</v>
+        <v>3.417877142298794</v>
       </c>
       <c r="E50">
         <v>0.2596690801590042</v>
@@ -2322,7 +2322,7 @@
         <v>0.7050562606118163</v>
       </c>
       <c r="D51">
-        <v>3.494624435148761</v>
+        <v>3.494624435148757</v>
       </c>
       <c r="E51">
         <v>0.2558097389024538</v>
@@ -2339,7 +2339,7 @@
         <v>0.7194451638896084</v>
       </c>
       <c r="D52">
-        <v>3.464792606428695</v>
+        <v>3.464792606428691</v>
       </c>
       <c r="E52">
         <v>0.2559708918343867</v>
@@ -2356,7 +2356,7 @@
         <v>0.7338340671674007</v>
       </c>
       <c r="D53">
-        <v>3.48651923012751</v>
+        <v>3.486519230127507</v>
       </c>
       <c r="E53">
         <v>0.2587803675005732</v>
@@ -2373,7 +2373,7 @@
         <v>0.7482229704451928</v>
       </c>
       <c r="D54">
-        <v>3.405450895912166</v>
+        <v>3.405450895912162</v>
       </c>
       <c r="E54">
         <v>0.2544540592223403</v>
@@ -2390,7 +2390,7 @@
         <v>0.7626118737229849</v>
       </c>
       <c r="D55">
-        <v>3.429553556115017</v>
+        <v>3.429553556115013</v>
       </c>
       <c r="E55">
         <v>0.2587842823971835</v>
@@ -2407,7 +2407,7 @@
         <v>0.7770007770007772</v>
       </c>
       <c r="D56">
-        <v>3.452929351332646</v>
+        <v>3.452929351332642</v>
       </c>
       <c r="E56">
         <v>0.2605302218988685</v>
@@ -2424,7 +2424,7 @@
         <v>0.7913896802785693</v>
       </c>
       <c r="D57">
-        <v>3.411045248347025</v>
+        <v>3.411045248347021</v>
       </c>
       <c r="E57">
         <v>0.2590349892703834</v>
@@ -2441,7 +2441,7 @@
         <v>0.8057785835563616</v>
       </c>
       <c r="D58">
-        <v>3.501463772137196</v>
+        <v>3.501463772137193</v>
       </c>
       <c r="E58">
         <v>0.2570356298802866</v>
@@ -2458,7 +2458,7 @@
         <v>0.8201674868341536</v>
       </c>
       <c r="D59">
-        <v>3.428126960277781</v>
+        <v>3.428126960277777</v>
       </c>
       <c r="E59">
         <v>0.2570206933797133</v>
@@ -2475,10 +2475,10 @@
         <v>0.8345563901119457</v>
       </c>
       <c r="D60">
-        <v>3.441782369245478</v>
+        <v>3.441782369245474</v>
       </c>
       <c r="E60">
-        <v>0.2595775485727188</v>
+        <v>0.2595775485727185</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -2492,7 +2492,7 @@
         <v>0.848945293389738</v>
       </c>
       <c r="D61">
-        <v>3.426387905224233</v>
+        <v>3.426387905224229</v>
       </c>
       <c r="E61">
         <v>0.2580193581247363</v>
@@ -2509,10 +2509,10 @@
         <v>0.8633341966675301</v>
       </c>
       <c r="D62">
-        <v>3.415993181315551</v>
+        <v>3.415993181315548</v>
       </c>
       <c r="E62">
-        <v>0.2542619445197973</v>
+        <v>0.2542619445197971</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -2526,7 +2526,7 @@
         <v>0.8777230999453224</v>
       </c>
       <c r="D63">
-        <v>3.428498417386137</v>
+        <v>3.428498417386133</v>
       </c>
       <c r="E63">
         <v>0.2581542157473812</v>
@@ -2543,7 +2543,7 @@
         <v>0.8921120032231145</v>
       </c>
       <c r="D64">
-        <v>3.435248337755271</v>
+        <v>3.435248337755267</v>
       </c>
       <c r="E64">
         <v>0.259969974912494</v>
@@ -2560,7 +2560,7 @@
         <v>0.9065009065009068</v>
       </c>
       <c r="D65">
-        <v>3.46783576919149</v>
+        <v>3.467835769191487</v>
       </c>
       <c r="E65">
         <v>0.2562353220397723</v>
@@ -2577,7 +2577,7 @@
         <v>0.9208898097786988</v>
       </c>
       <c r="D66">
-        <v>3.43354744225664</v>
+        <v>3.433547442256637</v>
       </c>
       <c r="E66">
         <v>0.2608523266988867</v>
@@ -2594,7 +2594,7 @@
         <v>0.9352787130564909</v>
       </c>
       <c r="D67">
-        <v>3.44150466124476</v>
+        <v>3.441504661244757</v>
       </c>
       <c r="E67">
         <v>0.2594700491885807</v>
@@ -2611,10 +2611,10 @@
         <v>0.9496676163342832</v>
       </c>
       <c r="D68">
-        <v>3.406887066150269</v>
+        <v>3.406887066150265</v>
       </c>
       <c r="E68">
-        <v>0.2580893224012585</v>
+        <v>0.2580893224012583</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2628,7 +2628,7 @@
         <v>0.9640565196120753</v>
       </c>
       <c r="D69">
-        <v>3.441948446693902</v>
+        <v>3.441948446693899</v>
       </c>
       <c r="E69">
         <v>0.2594778976531922</v>
@@ -2645,10 +2645,10 @@
         <v>0.9784454228898676</v>
       </c>
       <c r="D70">
-        <v>3.458355262334888</v>
+        <v>3.458355262334884</v>
       </c>
       <c r="E70">
-        <v>0.254220640170484</v>
+        <v>0.2542206401704842</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2662,7 +2662,7 @@
         <v>0.9928343261676597</v>
       </c>
       <c r="D71">
-        <v>3.422201445099737</v>
+        <v>3.422201445099734</v>
       </c>
       <c r="E71">
         <v>0.2603206590383608</v>
@@ -2679,7 +2679,7 @@
         <v>0.9971509971509972</v>
       </c>
       <c r="D72">
-        <v>3.464584134223793</v>
+        <v>3.46458413422379</v>
       </c>
       <c r="E72">
         <v>0.260024533533836</v>
@@ -2696,7 +2696,7 @@
         <v>1.017295461739907</v>
       </c>
       <c r="D73">
-        <v>3.514139461579651</v>
+        <v>3.514139461579648</v>
       </c>
       <c r="E73">
         <v>0.2854748781589529</v>
@@ -2713,7 +2713,7 @@
         <v>1.046073268295491</v>
       </c>
       <c r="D74">
-        <v>3.646288599866201</v>
+        <v>3.646288599866197</v>
       </c>
       <c r="E74">
         <v>0.2816278059730351</v>
@@ -2730,7 +2730,7 @@
         <v>1.074851074851075</v>
       </c>
       <c r="D75">
-        <v>3.670627089491642</v>
+        <v>3.670627089491639</v>
       </c>
       <c r="E75">
         <v>0.2820767549305878</v>
@@ -2747,7 +2747,7 @@
         <v>1.103628881406659</v>
       </c>
       <c r="D76">
-        <v>3.821920713247601</v>
+        <v>3.821920713247598</v>
       </c>
       <c r="E76">
         <v>0.2827510803584836</v>
@@ -2764,7 +2764,7 @@
         <v>1.132406687962244</v>
       </c>
       <c r="D77">
-        <v>3.790391452495884</v>
+        <v>3.790391452495881</v>
       </c>
       <c r="E77">
         <v>0.2848102636681207</v>
@@ -2781,7 +2781,7 @@
         <v>1.161184494517828</v>
       </c>
       <c r="D78">
-        <v>3.842609546293314</v>
+        <v>3.842609546293311</v>
       </c>
       <c r="E78">
         <v>0.2849649475790816</v>
@@ -2798,7 +2798,7 @@
         <v>1.189962301073412</v>
       </c>
       <c r="D79">
-        <v>3.937832193902435</v>
+        <v>3.937832193902432</v>
       </c>
       <c r="E79">
         <v>0.2859979163596428</v>
@@ -2815,7 +2815,7 @@
         <v>1.218740107628997</v>
       </c>
       <c r="D80">
-        <v>3.891199423070939</v>
+        <v>3.891199423070935</v>
       </c>
       <c r="E80">
         <v>0.2825225159597639</v>
@@ -2832,10 +2832,10 @@
         <v>1.247517914184581</v>
       </c>
       <c r="D81">
-        <v>3.974724165770867</v>
+        <v>3.974724165770864</v>
       </c>
       <c r="E81">
-        <v>0.2831161512246987</v>
+        <v>0.2831161512246988</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2849,7 +2849,7 @@
         <v>1.276295720740165</v>
       </c>
       <c r="D82">
-        <v>4.014428528040218</v>
+        <v>4.014428528040215</v>
       </c>
       <c r="E82">
         <v>0.2878699661075103</v>
@@ -2866,7 +2866,7 @@
         <v>1.282051282051282</v>
       </c>
       <c r="D83">
-        <v>4.007471812757104</v>
+        <v>4.007471812757101</v>
       </c>
       <c r="E83">
         <v>0.28517997927255</v>
@@ -2883,7 +2883,7 @@
         <v>1.339606895162451</v>
       </c>
       <c r="D84">
-        <v>4.225118960991598</v>
+        <v>4.225118960991594</v>
       </c>
       <c r="E84">
         <v>0.3531820421813813</v>
@@ -2900,7 +2900,7 @@
         <v>1.411551411551412</v>
       </c>
       <c r="D85">
-        <v>4.449489949435133</v>
+        <v>4.449489949435129</v>
       </c>
       <c r="E85">
         <v>0.3446363073158595</v>
@@ -2917,10 +2917,10 @@
         <v>1.483495927940373</v>
       </c>
       <c r="D86">
-        <v>4.53006462938549</v>
+        <v>4.530064629385486</v>
       </c>
       <c r="E86">
-        <v>0.346453909135516</v>
+        <v>0.3464539091355162</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -2934,7 +2934,7 @@
         <v>1.555440444329333</v>
       </c>
       <c r="D87">
-        <v>4.659419669640805</v>
+        <v>4.659419669640801</v>
       </c>
       <c r="E87">
         <v>0.347520134685202</v>
@@ -2951,7 +2951,7 @@
         <v>1.627384960718294</v>
       </c>
       <c r="D88">
-        <v>4.665801455227512</v>
+        <v>4.665801455227508</v>
       </c>
       <c r="E88">
         <v>0.343420813602268</v>
@@ -2968,7 +2968,7 @@
         <v>1.699329477107255</v>
       </c>
       <c r="D89">
-        <v>4.759329879710871</v>
+        <v>4.759329879710868</v>
       </c>
       <c r="E89">
         <v>0.3395319280955718</v>
@@ -2985,7 +2985,7 @@
         <v>1.771273993496216</v>
       </c>
       <c r="D90">
-        <v>4.708669810110387</v>
+        <v>4.708669810110384</v>
       </c>
       <c r="E90">
         <v>0.3428781509831649</v>
@@ -3002,7 +3002,7 @@
         <v>1.843218509885177</v>
       </c>
       <c r="D91">
-        <v>4.802871698782974</v>
+        <v>4.802871698782971</v>
       </c>
       <c r="E91">
         <v>0.339779313081529</v>
@@ -3019,7 +3019,7 @@
         <v>1.915163026274138</v>
       </c>
       <c r="D92">
-        <v>4.80418836146441</v>
+        <v>4.804188361464407</v>
       </c>
       <c r="E92">
         <v>0.341731109828474</v>
@@ -3036,7 +3036,7 @@
         <v>1.987107542663099</v>
       </c>
       <c r="D93">
-        <v>4.813569252400825</v>
+        <v>4.813569252400821</v>
       </c>
       <c r="E93">
         <v>0.3365202176484137</v>
@@ -3053,7 +3053,7 @@
         <v>1.994301994301994</v>
       </c>
       <c r="D94">
-        <v>4.744067861349621</v>
+        <v>4.744067861349618</v>
       </c>
       <c r="E94">
         <v>0.3412417460357212</v>
@@ -3070,10 +3070,10 @@
         <v>2.123802123802125</v>
       </c>
       <c r="D95">
-        <v>5.028257205327956</v>
+        <v>5.028257205327959</v>
       </c>
       <c r="E95">
-        <v>0.4267124367158776</v>
+        <v>0.4267124367158778</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -3087,7 +3087,7 @@
         <v>2.267691156580045</v>
       </c>
       <c r="D96">
-        <v>5.102329099432594</v>
+        <v>5.102329099432597</v>
       </c>
       <c r="E96">
         <v>0.4239147421577732</v>
@@ -3104,7 +3104,7 @@
         <v>2.411580189357968</v>
       </c>
       <c r="D97">
-        <v>5.244997656220224</v>
+        <v>5.244997656220227</v>
       </c>
       <c r="E97">
         <v>0.4167843247288421</v>
@@ -3121,7 +3121,7 @@
         <v>2.555469222135889</v>
       </c>
       <c r="D98">
-        <v>5.220991114447282</v>
+        <v>5.220991114447285</v>
       </c>
       <c r="E98">
         <v>0.4109033427473405</v>
@@ -3138,7 +3138,7 @@
         <v>2.699358254913812</v>
       </c>
       <c r="D99">
-        <v>5.257609950949671</v>
+        <v>5.257609950949675</v>
       </c>
       <c r="E99">
         <v>0.4121647826100899</v>
@@ -3155,7 +3155,7 @@
         <v>2.843247287691733</v>
       </c>
       <c r="D100">
-        <v>5.290491240323516</v>
+        <v>5.29049124032352</v>
       </c>
       <c r="E100">
         <v>0.4071017957703045</v>
@@ -3172,10 +3172,10 @@
         <v>2.987136320469654</v>
       </c>
       <c r="D101">
-        <v>5.366593308627812</v>
+        <v>5.366593308627816</v>
       </c>
       <c r="E101">
-        <v>0.4107846793021018</v>
+        <v>0.4107846793021016</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -3189,7 +3189,7 @@
         <v>3.131025353247577</v>
       </c>
       <c r="D102">
-        <v>5.325569223124985</v>
+        <v>5.325569223124988</v>
       </c>
       <c r="E102">
         <v>0.4128497546008257</v>
@@ -3206,10 +3206,10 @@
         <v>3.274914386025498</v>
       </c>
       <c r="D103">
-        <v>5.348738289336204</v>
+        <v>5.348738289336207</v>
       </c>
       <c r="E103">
-        <v>0.4106562365008418</v>
+        <v>0.410656236500842</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -3223,7 +3223,7 @@
         <v>3.418803418803419</v>
       </c>
       <c r="D104">
-        <v>5.355618311065706</v>
+        <v>5.35561831106571</v>
       </c>
       <c r="E104">
         <v>0.4088362742154091</v>
@@ -3526,28 +3526,28 @@
         <v>0.549717730121325</v>
       </c>
       <c r="K2">
-        <v>0.5103760718213547</v>
+        <v>0.5103760718213548</v>
       </c>
       <c r="L2">
-        <v>0.5058296888071141</v>
+        <v>0.5058296888071142</v>
       </c>
       <c r="M2">
         <v>0.5095515274443498</v>
       </c>
       <c r="N2">
-        <v>0.4881232612425518</v>
+        <v>0.4881232612425519</v>
       </c>
       <c r="O2">
         <v>0.4874173021001929</v>
       </c>
       <c r="P2">
-        <v>0.4495537960327112</v>
+        <v>0.4495537960327115</v>
       </c>
       <c r="Q2">
         <v>0.4263161856840182</v>
       </c>
       <c r="R2">
-        <v>0.387500194371236</v>
+        <v>0.3875001943712359</v>
       </c>
       <c r="S2">
         <v>0.3414486435086648</v>
@@ -3556,13 +3556,13 @@
         <v>0.3287367817525436</v>
       </c>
       <c r="U2">
-        <v>0.3326309101848316</v>
+        <v>0.3326309101848317</v>
       </c>
       <c r="V2">
         <v>0.2574503527463677</v>
       </c>
       <c r="W2">
-        <v>0.2787503876081802</v>
+        <v>0.2787503876081803</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -3597,7 +3597,7 @@
         <v>0.5472774387035521</v>
       </c>
       <c r="K3">
-        <v>0.5090385053498641</v>
+        <v>0.5090385053498642</v>
       </c>
       <c r="L3">
         <v>0.4999807309750827</v>
@@ -3621,13 +3621,13 @@
         <v>0.3674683642266039</v>
       </c>
       <c r="S3">
-        <v>0.3386045826884461</v>
+        <v>0.338604582688446</v>
       </c>
       <c r="T3">
         <v>0.3214638075468391</v>
       </c>
       <c r="U3">
-        <v>0.3358205351992548</v>
+        <v>0.3358205351992549</v>
       </c>
       <c r="V3">
         <v>0.2849677832858031</v>
@@ -3677,28 +3677,28 @@
         <v>0.5104603922301844</v>
       </c>
       <c r="N4">
-        <v>0.4859106803985623</v>
+        <v>0.4859106803985624</v>
       </c>
       <c r="O4">
         <v>0.4906805785101743</v>
       </c>
       <c r="P4">
-        <v>0.4691613511150506</v>
+        <v>0.4691613511150505</v>
       </c>
       <c r="Q4">
-        <v>0.4333005777329978</v>
+        <v>0.4333005777329977</v>
       </c>
       <c r="R4">
-        <v>0.376935353082745</v>
+        <v>0.3769353530827448</v>
       </c>
       <c r="S4">
         <v>0.345086199549283</v>
       </c>
       <c r="T4">
-        <v>0.3382522752234439</v>
+        <v>0.3382522752234438</v>
       </c>
       <c r="U4">
-        <v>0.3339858863836895</v>
+        <v>0.3339858863836896</v>
       </c>
       <c r="V4">
         <v>0.2622945312211599</v>
@@ -3748,19 +3748,19 @@
         <v>0.4995955693581263</v>
       </c>
       <c r="N5">
-        <v>0.5072042038291587</v>
+        <v>0.5072042038291588</v>
       </c>
       <c r="O5">
         <v>0.4896895544577962</v>
       </c>
       <c r="P5">
-        <v>0.4603372468768088</v>
+        <v>0.4603372468768089</v>
       </c>
       <c r="Q5">
-        <v>0.4238493581627719</v>
+        <v>0.4238493581627718</v>
       </c>
       <c r="R5">
-        <v>0.3989456003308133</v>
+        <v>0.3989456003308134</v>
       </c>
       <c r="S5">
         <v>0.3390892657305376</v>
@@ -3772,7 +3772,7 @@
         <v>0.325148483800171</v>
       </c>
       <c r="V5">
-        <v>0.2836330115700966</v>
+        <v>0.2836330115700967</v>
       </c>
       <c r="W5">
         <v>0.2866730702604394</v>
@@ -3810,7 +3810,7 @@
         <v>0.5394599207456958</v>
       </c>
       <c r="K6">
-        <v>0.5371441337880134</v>
+        <v>0.5371441337880133</v>
       </c>
       <c r="L6">
         <v>0.5108234150336783</v>
@@ -3819,13 +3819,13 @@
         <v>0.4889713514807412</v>
       </c>
       <c r="N6">
-        <v>0.5010753757388935</v>
+        <v>0.5010753757388934</v>
       </c>
       <c r="O6">
         <v>0.4833123697895974</v>
       </c>
       <c r="P6">
-        <v>0.4478672471548628</v>
+        <v>0.447867247154863</v>
       </c>
       <c r="Q6">
         <v>0.4179981833507098</v>
@@ -3837,10 +3837,10 @@
         <v>0.3519294220704645</v>
       </c>
       <c r="T6">
-        <v>0.3222386631996108</v>
+        <v>0.3222386631996109</v>
       </c>
       <c r="U6">
-        <v>0.3338705783334177</v>
+        <v>0.3338705783334178</v>
       </c>
       <c r="V6">
         <v>0.2838889991895931</v>
@@ -3884,7 +3884,7 @@
         <v>0.5229224556014693</v>
       </c>
       <c r="L7">
-        <v>0.5212497795972272</v>
+        <v>0.521249779597227</v>
       </c>
       <c r="M7">
         <v>0.4990525714193289</v>
@@ -3896,22 +3896,22 @@
         <v>0.4964340503195737</v>
       </c>
       <c r="P7">
-        <v>0.4619310611116234</v>
+        <v>0.4619310611116231</v>
       </c>
       <c r="Q7">
         <v>0.4343967513375095</v>
       </c>
       <c r="R7">
-        <v>0.3830298429210879</v>
+        <v>0.3830298429210878</v>
       </c>
       <c r="S7">
-        <v>0.3420984119784464</v>
+        <v>0.3420984119784465</v>
       </c>
       <c r="T7">
         <v>0.3413016531459568</v>
       </c>
       <c r="U7">
-        <v>0.339521321141598</v>
+        <v>0.3395213211415979</v>
       </c>
       <c r="V7">
         <v>0.2632469189152534</v>
@@ -3952,16 +3952,16 @@
         <v>0.541076507670978</v>
       </c>
       <c r="K8">
-        <v>0.5428419852020776</v>
+        <v>0.5428419852020777</v>
       </c>
       <c r="L8">
-        <v>0.5129450256548533</v>
+        <v>0.5129450256548534</v>
       </c>
       <c r="M8">
         <v>0.5193878979667433</v>
       </c>
       <c r="N8">
-        <v>0.5039644493374505</v>
+        <v>0.5039644493374507</v>
       </c>
       <c r="O8">
         <v>0.5012100667579619</v>
@@ -3970,7 +3970,7 @@
         <v>0.4644505868042623</v>
       </c>
       <c r="Q8">
-        <v>0.4309207199204552</v>
+        <v>0.4309207199204553</v>
       </c>
       <c r="R8">
         <v>0.3949387187845736</v>
@@ -3982,7 +3982,7 @@
         <v>0.3234850482554617</v>
       </c>
       <c r="U8">
-        <v>0.3270984260115353</v>
+        <v>0.3270984260115354</v>
       </c>
       <c r="V8">
         <v>0.2650647704346749</v>
@@ -4023,7 +4023,7 @@
         <v>0.5559251349017514</v>
       </c>
       <c r="K9">
-        <v>0.5475384599273184</v>
+        <v>0.5475384599273183</v>
       </c>
       <c r="L9">
         <v>0.5301640407923075</v>
@@ -4032,7 +4032,7 @@
         <v>0.5080864503565676</v>
       </c>
       <c r="N9">
-        <v>0.5086051078935954</v>
+        <v>0.5086051078935953</v>
       </c>
       <c r="O9">
         <v>0.4954591065988393</v>
@@ -4041,19 +4041,19 @@
         <v>0.4610701332711117</v>
       </c>
       <c r="Q9">
-        <v>0.4239964182075904</v>
+        <v>0.4239964182075903</v>
       </c>
       <c r="R9">
         <v>0.3995939691084255</v>
       </c>
       <c r="S9">
-        <v>0.3392980685124492</v>
+        <v>0.3392980685124491</v>
       </c>
       <c r="T9">
         <v>0.3458513891154414</v>
       </c>
       <c r="U9">
-        <v>0.3245425809634997</v>
+        <v>0.3245425809634998</v>
       </c>
       <c r="V9">
         <v>0.2769612908001628</v>
@@ -4106,25 +4106,25 @@
         <v>0.5004915660793882</v>
       </c>
       <c r="O10">
-        <v>0.5169150095994345</v>
+        <v>0.5169150095994344</v>
       </c>
       <c r="P10">
-        <v>0.4828319758605246</v>
+        <v>0.4828319758605248</v>
       </c>
       <c r="Q10">
         <v>0.4245389609415309</v>
       </c>
       <c r="R10">
-        <v>0.3988274092094269</v>
+        <v>0.3988274092094268</v>
       </c>
       <c r="S10">
-        <v>0.3497638793617186</v>
+        <v>0.3497638793617185</v>
       </c>
       <c r="T10">
-        <v>0.3454883887954329</v>
+        <v>0.345488388795433</v>
       </c>
       <c r="U10">
-        <v>0.3526964399747267</v>
+        <v>0.3526964399747268</v>
       </c>
       <c r="V10">
         <v>0.2786443982267771</v>
@@ -4168,16 +4168,16 @@
         <v>0.535981381053226</v>
       </c>
       <c r="L11">
-        <v>0.5252226256267718</v>
+        <v>0.5252226256267717</v>
       </c>
       <c r="M11">
         <v>0.5100007096878773</v>
       </c>
       <c r="N11">
-        <v>0.522297137693293</v>
+        <v>0.5222971376932931</v>
       </c>
       <c r="O11">
-        <v>0.5095634418173829</v>
+        <v>0.5095634418173828</v>
       </c>
       <c r="P11">
         <v>0.4697508563613327</v>
@@ -4189,7 +4189,7 @@
         <v>0.3998326220348744</v>
       </c>
       <c r="S11">
-        <v>0.3524313377228373</v>
+        <v>0.3524313377228372</v>
       </c>
       <c r="T11">
         <v>0.3524682699516114</v>
@@ -4236,7 +4236,7 @@
         <v>0.5572789643018271</v>
       </c>
       <c r="K12">
-        <v>0.5582712744125093</v>
+        <v>0.5582712744125096</v>
       </c>
       <c r="L12">
         <v>0.5241799691341955</v>
@@ -4251,10 +4251,10 @@
         <v>0.5045916357320805</v>
       </c>
       <c r="P12">
-        <v>0.4938345773634271</v>
+        <v>0.493834577363427</v>
       </c>
       <c r="Q12">
-        <v>0.4304245581140615</v>
+        <v>0.4304245581140613</v>
       </c>
       <c r="R12">
         <v>0.4050542483990868</v>
@@ -4263,7 +4263,7 @@
         <v>0.3703326823550619</v>
       </c>
       <c r="T12">
-        <v>0.3458872111528429</v>
+        <v>0.345887211152843</v>
       </c>
       <c r="U12">
         <v>0.3495694304947202</v>
@@ -4316,10 +4316,10 @@
         <v>0.5209143893503246</v>
       </c>
       <c r="N13">
-        <v>0.5255029107154962</v>
+        <v>0.525502910715496</v>
       </c>
       <c r="O13">
-        <v>0.5033174618135481</v>
+        <v>0.5033174618135483</v>
       </c>
       <c r="P13">
         <v>0.5003990363472105</v>
@@ -4331,13 +4331,13 @@
         <v>0.4226222577040616</v>
       </c>
       <c r="S13">
-        <v>0.3580952574841649</v>
+        <v>0.358095257484165</v>
       </c>
       <c r="T13">
         <v>0.3563936014783678</v>
       </c>
       <c r="U13">
-        <v>0.3494975396431977</v>
+        <v>0.3494975396431976</v>
       </c>
       <c r="V13">
         <v>0.2911962902630709</v>
@@ -4378,7 +4378,7 @@
         <v>0.5848806344214408</v>
       </c>
       <c r="K14">
-        <v>0.5552157023549135</v>
+        <v>0.5552157023549134</v>
       </c>
       <c r="L14">
         <v>0.5483442607450446</v>
@@ -4393,19 +4393,19 @@
         <v>0.5210630178247617</v>
       </c>
       <c r="P14">
-        <v>0.4780725114413846</v>
+        <v>0.4780725114413847</v>
       </c>
       <c r="Q14">
-        <v>0.4411779137524151</v>
+        <v>0.441177913752415</v>
       </c>
       <c r="R14">
         <v>0.4090552357938025</v>
       </c>
       <c r="S14">
-        <v>0.3504327250822666</v>
+        <v>0.3504327250822665</v>
       </c>
       <c r="T14">
-        <v>0.3580655000093438</v>
+        <v>0.3580655000093437</v>
       </c>
       <c r="U14">
         <v>0.3639690286989629</v>
@@ -4455,10 +4455,10 @@
         <v>0.5472957096051404</v>
       </c>
       <c r="M15">
-        <v>0.5264001454791515</v>
+        <v>0.5264001454791514</v>
       </c>
       <c r="N15">
-        <v>0.5105068762355256</v>
+        <v>0.5105068762355257</v>
       </c>
       <c r="O15">
         <v>0.521145091017968</v>
@@ -4467,10 +4467,10 @@
         <v>0.4995986593586371</v>
       </c>
       <c r="Q15">
-        <v>0.4686202111512067</v>
+        <v>0.4686202111512068</v>
       </c>
       <c r="R15">
-        <v>0.4129918792348222</v>
+        <v>0.4129918792348221</v>
       </c>
       <c r="S15">
         <v>0.3657957137043451</v>
@@ -4526,7 +4526,7 @@
         <v>0.5636949705307517</v>
       </c>
       <c r="M16">
-        <v>0.5249021547998876</v>
+        <v>0.5249021547998877</v>
       </c>
       <c r="N16">
         <v>0.5135957548572058</v>
@@ -4535,13 +4535,13 @@
         <v>0.5316477115419486</v>
       </c>
       <c r="P16">
-        <v>0.5024969811193233</v>
+        <v>0.5024969811193232</v>
       </c>
       <c r="Q16">
-        <v>0.4515989035802733</v>
+        <v>0.4515989035802734</v>
       </c>
       <c r="R16">
-        <v>0.4181541119603467</v>
+        <v>0.4181541119603469</v>
       </c>
       <c r="S16">
         <v>0.3762438004300266</v>
@@ -4550,13 +4550,13 @@
         <v>0.3576014363784861</v>
       </c>
       <c r="U16">
-        <v>0.3539365951771588</v>
+        <v>0.3539365951771589</v>
       </c>
       <c r="V16">
         <v>0.3068800266727268</v>
       </c>
       <c r="W16">
-        <v>0.2995610546378558</v>
+        <v>0.2995610546378559</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -4600,7 +4600,7 @@
         <v>0.5259994489706815</v>
       </c>
       <c r="N17">
-        <v>0.5277525185143511</v>
+        <v>0.527752518514351</v>
       </c>
       <c r="O17">
         <v>0.5433621504285774</v>
@@ -4612,10 +4612,10 @@
         <v>0.4738041378649476</v>
       </c>
       <c r="R17">
-        <v>0.4450496984976238</v>
+        <v>0.4450496984976237</v>
       </c>
       <c r="S17">
-        <v>0.3646983481256473</v>
+        <v>0.3646983481256474</v>
       </c>
       <c r="T17">
         <v>0.3622726577266207</v>
@@ -4662,10 +4662,10 @@
         <v>0.597629135014365</v>
       </c>
       <c r="K18">
-        <v>0.5625297640189013</v>
+        <v>0.5625297640189012</v>
       </c>
       <c r="L18">
-        <v>0.5663217108230431</v>
+        <v>0.5663217108230432</v>
       </c>
       <c r="M18">
         <v>0.5297998725492986</v>
@@ -4677,25 +4677,25 @@
         <v>0.5225265480646175</v>
       </c>
       <c r="P18">
-        <v>0.5109125635113422</v>
+        <v>0.5109125635113423</v>
       </c>
       <c r="Q18">
         <v>0.4685178502188274</v>
       </c>
       <c r="R18">
-        <v>0.4473700782602443</v>
+        <v>0.4473700782602442</v>
       </c>
       <c r="S18">
         <v>0.3879318846968317</v>
       </c>
       <c r="T18">
-        <v>0.3761862213563713</v>
+        <v>0.3761862213563714</v>
       </c>
       <c r="U18">
         <v>0.3728129311301338</v>
       </c>
       <c r="V18">
-        <v>0.2956361326603448</v>
+        <v>0.2956361326603449</v>
       </c>
       <c r="W18">
         <v>0.2956392733742215</v>
@@ -4733,7 +4733,7 @@
         <v>0.5988453511486649</v>
       </c>
       <c r="K19">
-        <v>0.5861443351046313</v>
+        <v>0.5861443351046315</v>
       </c>
       <c r="L19">
         <v>0.5773611200114703</v>
@@ -4742,13 +4742,13 @@
         <v>0.5283578870091015</v>
       </c>
       <c r="N19">
-        <v>0.5484982331978292</v>
+        <v>0.5484982331978291</v>
       </c>
       <c r="O19">
         <v>0.5424251081816087</v>
       </c>
       <c r="P19">
-        <v>0.5232996387029624</v>
+        <v>0.5232996387029625</v>
       </c>
       <c r="Q19">
         <v>0.4556753608177075</v>
@@ -4757,7 +4757,7 @@
         <v>0.4544015438125766</v>
       </c>
       <c r="S19">
-        <v>0.3648990913122172</v>
+        <v>0.3648990913122173</v>
       </c>
       <c r="T19">
         <v>0.3688447745493</v>
@@ -4769,7 +4769,7 @@
         <v>0.3152494021756672</v>
       </c>
       <c r="W19">
-        <v>0.2890594697608635</v>
+        <v>0.2890594697608636</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -4807,31 +4807,31 @@
         <v>0.5955339140284163</v>
       </c>
       <c r="L20">
-        <v>0.5563511452293135</v>
+        <v>0.5563511452293134</v>
       </c>
       <c r="M20">
         <v>0.5599650586684572</v>
       </c>
       <c r="N20">
-        <v>0.5280706276314899</v>
+        <v>0.5280706276314898</v>
       </c>
       <c r="O20">
         <v>0.536758730809172</v>
       </c>
       <c r="P20">
-        <v>0.5229809480925763</v>
+        <v>0.5229809480925762</v>
       </c>
       <c r="Q20">
         <v>0.4645081921380406</v>
       </c>
       <c r="R20">
-        <v>0.4581522386491728</v>
+        <v>0.4581522386491726</v>
       </c>
       <c r="S20">
         <v>0.3900340807753316</v>
       </c>
       <c r="T20">
-        <v>0.3832774314837172</v>
+        <v>0.3832774314837173</v>
       </c>
       <c r="U20">
         <v>0.3651246802137252</v>
@@ -4878,25 +4878,25 @@
         <v>0.603075367688459</v>
       </c>
       <c r="L21">
-        <v>0.5609135732613978</v>
+        <v>0.5609135732613979</v>
       </c>
       <c r="M21">
-        <v>0.5641022239366241</v>
+        <v>0.5641022239366242</v>
       </c>
       <c r="N21">
-        <v>0.5488749801336901</v>
+        <v>0.5488749801336902</v>
       </c>
       <c r="O21">
         <v>0.5393735041811927</v>
       </c>
       <c r="P21">
-        <v>0.5238917443530511</v>
+        <v>0.5238917443530509</v>
       </c>
       <c r="Q21">
-        <v>0.4727052721494341</v>
+        <v>0.472705272149434</v>
       </c>
       <c r="R21">
-        <v>0.4353892289341297</v>
+        <v>0.4353892289341298</v>
       </c>
       <c r="S21">
         <v>0.3798453015483329</v>
@@ -4952,34 +4952,34 @@
         <v>0.5910420692121271</v>
       </c>
       <c r="M22">
-        <v>0.5417571747844326</v>
+        <v>0.5417571747844327</v>
       </c>
       <c r="N22">
-        <v>0.5598551963418713</v>
+        <v>0.5598551963418712</v>
       </c>
       <c r="O22">
         <v>0.5399519329493462</v>
       </c>
       <c r="P22">
-        <v>0.5216171294506831</v>
+        <v>0.5216171294506829</v>
       </c>
       <c r="Q22">
         <v>0.4777278432983723</v>
       </c>
       <c r="R22">
-        <v>0.4628149841428186</v>
+        <v>0.4628149841428185</v>
       </c>
       <c r="S22">
-        <v>0.398561250121473</v>
+        <v>0.3985612501214731</v>
       </c>
       <c r="T22">
-        <v>0.3766654742804467</v>
+        <v>0.3766654742804466</v>
       </c>
       <c r="U22">
         <v>0.3790639265358187</v>
       </c>
       <c r="V22">
-        <v>0.3099725687622576</v>
+        <v>0.3099725687622577</v>
       </c>
       <c r="W22">
         <v>0.3102621330098502</v>
@@ -5020,22 +5020,22 @@
         <v>0.6027284931733217</v>
       </c>
       <c r="L23">
-        <v>0.5763109834948009</v>
+        <v>0.576310983494801</v>
       </c>
       <c r="M23">
-        <v>0.5449068759538479</v>
+        <v>0.5449068759538477</v>
       </c>
       <c r="N23">
-        <v>0.5482376357439287</v>
+        <v>0.5482376357439285</v>
       </c>
       <c r="O23">
         <v>0.5460420647272071</v>
       </c>
       <c r="P23">
-        <v>0.5204355704707341</v>
+        <v>0.5204355704707343</v>
       </c>
       <c r="Q23">
-        <v>0.4864632505043778</v>
+        <v>0.4864632505043777</v>
       </c>
       <c r="R23">
         <v>0.4527897782307325</v>
@@ -5047,10 +5047,10 @@
         <v>0.383711861229129</v>
       </c>
       <c r="U23">
-        <v>0.3931140182876962</v>
+        <v>0.3931140182876961</v>
       </c>
       <c r="V23">
-        <v>0.3179534825835641</v>
+        <v>0.3179534825835642</v>
       </c>
       <c r="W23">
         <v>0.3284822120904754</v>
@@ -5097,7 +5097,7 @@
         <v>0.5596224375946505</v>
       </c>
       <c r="N24">
-        <v>0.5669418633235138</v>
+        <v>0.5669418633235137</v>
       </c>
       <c r="O24">
         <v>0.5427863833975536</v>
@@ -5106,7 +5106,7 @@
         <v>0.523912847449948</v>
       </c>
       <c r="Q24">
-        <v>0.4918790448838144</v>
+        <v>0.4918790448838145</v>
       </c>
       <c r="R24">
         <v>0.4716308693755015</v>
@@ -5115,7 +5115,7 @@
         <v>0.4122768059574201</v>
       </c>
       <c r="T24">
-        <v>0.3825981483628048</v>
+        <v>0.3825981483628049</v>
       </c>
       <c r="U24">
         <v>0.38365374978228</v>
@@ -5159,7 +5159,7 @@
         <v>0.651807585939253</v>
       </c>
       <c r="K25">
-        <v>0.602348751579696</v>
+        <v>0.6023487515796959</v>
       </c>
       <c r="L25">
         <v>0.6030485406720297</v>
@@ -5168,16 +5168,16 @@
         <v>0.5746426970393983</v>
       </c>
       <c r="N25">
-        <v>0.5484245321947957</v>
+        <v>0.5484245321947956</v>
       </c>
       <c r="O25">
-        <v>0.5574404077236789</v>
+        <v>0.557440407723679</v>
       </c>
       <c r="P25">
-        <v>0.5290976603425913</v>
+        <v>0.5290976603425914</v>
       </c>
       <c r="Q25">
-        <v>0.487768742289554</v>
+        <v>0.4877687422895541</v>
       </c>
       <c r="R25">
         <v>0.4804125909572216</v>
@@ -5186,10 +5186,10 @@
         <v>0.3917029955414621</v>
       </c>
       <c r="T25">
-        <v>0.3868498876855128</v>
+        <v>0.3868498876855129</v>
       </c>
       <c r="U25">
-        <v>0.378505142277025</v>
+        <v>0.3785051422770249</v>
       </c>
       <c r="V25">
         <v>0.336137799609545</v>
@@ -5233,28 +5233,28 @@
         <v>0.6238668326888727</v>
       </c>
       <c r="L26">
-        <v>0.5974162782051855</v>
+        <v>0.5974162782051856</v>
       </c>
       <c r="M26">
         <v>0.5810318826123301</v>
       </c>
       <c r="N26">
-        <v>0.5516582895741422</v>
+        <v>0.5516582895741424</v>
       </c>
       <c r="O26">
         <v>0.5659373345856796</v>
       </c>
       <c r="P26">
-        <v>0.5539353008241376</v>
+        <v>0.5539353008241374</v>
       </c>
       <c r="Q26">
         <v>0.4857624652340009</v>
       </c>
       <c r="R26">
-        <v>0.4778618164404828</v>
+        <v>0.4778618164404827</v>
       </c>
       <c r="S26">
-        <v>0.4087171572973599</v>
+        <v>0.40871715729736</v>
       </c>
       <c r="T26">
         <v>0.3861059512808364</v>
@@ -5304,25 +5304,25 @@
         <v>0.6197284086188291</v>
       </c>
       <c r="L27">
-        <v>0.6106195288471239</v>
+        <v>0.6106195288471238</v>
       </c>
       <c r="M27">
-        <v>0.5609209263009859</v>
+        <v>0.560920926300986</v>
       </c>
       <c r="N27">
         <v>0.5602033200026489</v>
       </c>
       <c r="O27">
-        <v>0.5610632600990966</v>
+        <v>0.5610632600990965</v>
       </c>
       <c r="P27">
-        <v>0.5361139777634385</v>
+        <v>0.5361139777634384</v>
       </c>
       <c r="Q27">
         <v>0.5093054200746983</v>
       </c>
       <c r="R27">
-        <v>0.4870817455902342</v>
+        <v>0.4870817455902341</v>
       </c>
       <c r="S27">
         <v>0.417267015913997</v>
@@ -5375,19 +5375,19 @@
         <v>0.6265841161009932</v>
       </c>
       <c r="L28">
-        <v>0.6108072084074181</v>
+        <v>0.6108072084074182</v>
       </c>
       <c r="M28">
         <v>0.5738089910688595</v>
       </c>
       <c r="N28">
-        <v>0.5738536061180163</v>
+        <v>0.5738536061180162</v>
       </c>
       <c r="O28">
         <v>0.5712134742227218</v>
       </c>
       <c r="P28">
-        <v>0.5412509663910555</v>
+        <v>0.5412509663910556</v>
       </c>
       <c r="Q28">
         <v>0.5075125058120014</v>
@@ -5396,13 +5396,13 @@
         <v>0.4834231207885711</v>
       </c>
       <c r="S28">
-        <v>0.4303244250821319</v>
+        <v>0.4303244250821318</v>
       </c>
       <c r="T28">
         <v>0.4175990011818408</v>
       </c>
       <c r="U28">
-        <v>0.4172682365300536</v>
+        <v>0.4172682365300535</v>
       </c>
       <c r="V28">
         <v>0.3279164012349396</v>
@@ -5458,7 +5458,7 @@
         <v>0.5767766167708297</v>
       </c>
       <c r="P29">
-        <v>0.5437850382486631</v>
+        <v>0.5437850382486629</v>
       </c>
       <c r="Q29">
         <v>0.5197822043316592</v>
@@ -5470,7 +5470,7 @@
         <v>0.4096037607474486</v>
       </c>
       <c r="T29">
-        <v>0.4196935738888765</v>
+        <v>0.4196935738888764</v>
       </c>
       <c r="U29">
         <v>0.4034327278477527</v>
@@ -5479,7 +5479,7 @@
         <v>0.3415775295329554</v>
       </c>
       <c r="W29">
-        <v>0.3405495918689945</v>
+        <v>0.3405495918689946</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -5517,34 +5517,34 @@
         <v>0.6334538847240408</v>
       </c>
       <c r="L30">
-        <v>0.6145004791829247</v>
+        <v>0.6145004791829248</v>
       </c>
       <c r="M30">
         <v>0.5795228967699073</v>
       </c>
       <c r="N30">
-        <v>0.591770402875585</v>
+        <v>0.5917704028755852</v>
       </c>
       <c r="O30">
-        <v>0.5877700803084057</v>
+        <v>0.5877700803084056</v>
       </c>
       <c r="P30">
-        <v>0.5711424116601461</v>
+        <v>0.571142411660146</v>
       </c>
       <c r="Q30">
         <v>0.5219505569992816</v>
       </c>
       <c r="R30">
-        <v>0.5064540994335127</v>
+        <v>0.506454099433513</v>
       </c>
       <c r="S30">
-        <v>0.4392981482042166</v>
+        <v>0.4392981482042167</v>
       </c>
       <c r="T30">
         <v>0.4164040098919242</v>
       </c>
       <c r="U30">
-        <v>0.431221216306993</v>
+        <v>0.4312212163069931</v>
       </c>
       <c r="V30">
         <v>0.3392875267396261</v>
@@ -5594,10 +5594,10 @@
         <v>0.6106962466869821</v>
       </c>
       <c r="N31">
-        <v>0.5970956376508187</v>
+        <v>0.5970956376508189</v>
       </c>
       <c r="O31">
-        <v>0.5908990794656406</v>
+        <v>0.5908990794656405</v>
       </c>
       <c r="P31">
         <v>0.5548516616856483</v>
@@ -5606,7 +5606,7 @@
         <v>0.5106632699600402</v>
       </c>
       <c r="R31">
-        <v>0.4963073202067799</v>
+        <v>0.4963073202067798</v>
       </c>
       <c r="S31">
         <v>0.435564021793719</v>
@@ -5615,7 +5615,7 @@
         <v>0.4329741381516455</v>
       </c>
       <c r="U31">
-        <v>0.4196278613079851</v>
+        <v>0.4196278613079852</v>
       </c>
       <c r="V31">
         <v>0.3629749655550106</v>
@@ -5668,7 +5668,7 @@
         <v>0.5826942857241872</v>
       </c>
       <c r="O32">
-        <v>0.607716257349655</v>
+        <v>0.6077162573496548</v>
       </c>
       <c r="P32">
         <v>0.5891572576837405</v>
@@ -5683,10 +5683,10 @@
         <v>0.4548916470551173</v>
       </c>
       <c r="T32">
-        <v>0.4202880898095367</v>
+        <v>0.4202880898095368</v>
       </c>
       <c r="U32">
-        <v>0.4309871481349356</v>
+        <v>0.4309871481349355</v>
       </c>
       <c r="V32">
         <v>0.3739966980272872</v>
@@ -5739,10 +5739,10 @@
         <v>0.6121869247979663</v>
       </c>
       <c r="O33">
-        <v>0.6009170750924868</v>
+        <v>0.600917075092487</v>
       </c>
       <c r="P33">
-        <v>0.5971884729355103</v>
+        <v>0.5971884729355101</v>
       </c>
       <c r="Q33">
         <v>0.5470833618826039</v>
@@ -5754,7 +5754,7 @@
         <v>0.4371583170585402</v>
       </c>
       <c r="T33">
-        <v>0.429162280016454</v>
+        <v>0.4291622800164541</v>
       </c>
       <c r="U33">
         <v>0.4450601931651799</v>
@@ -5798,10 +5798,10 @@
         <v>0.7124003182498094</v>
       </c>
       <c r="K34">
-        <v>0.6744050251694285</v>
+        <v>0.6744050251694284</v>
       </c>
       <c r="L34">
-        <v>0.6321984732602325</v>
+        <v>0.6321984732602324</v>
       </c>
       <c r="M34">
         <v>0.6023868780806282</v>
@@ -5810,16 +5810,16 @@
         <v>0.5951322171371903</v>
       </c>
       <c r="O34">
-        <v>0.6098004028168622</v>
+        <v>0.6098004028168621</v>
       </c>
       <c r="P34">
-        <v>0.5812969857115579</v>
+        <v>0.581296985711558</v>
       </c>
       <c r="Q34">
         <v>0.5429123079641437</v>
       </c>
       <c r="R34">
-        <v>0.5237799287699562</v>
+        <v>0.5237799287699559</v>
       </c>
       <c r="S34">
         <v>0.448488915344782</v>
@@ -5869,7 +5869,7 @@
         <v>0.7304558026545077</v>
       </c>
       <c r="K35">
-        <v>0.6903640386978976</v>
+        <v>0.6903640386978975</v>
       </c>
       <c r="L35">
         <v>0.6510105501093152</v>
@@ -5881,10 +5881,10 @@
         <v>0.6260602550476201</v>
       </c>
       <c r="O35">
-        <v>0.6142017549867097</v>
+        <v>0.6142017549867098</v>
       </c>
       <c r="P35">
-        <v>0.582519430359291</v>
+        <v>0.5825194303592911</v>
       </c>
       <c r="Q35">
         <v>0.5620366419511192</v>
@@ -5896,7 +5896,7 @@
         <v>0.4644297528101989</v>
       </c>
       <c r="T35">
-        <v>0.4415094637563594</v>
+        <v>0.4415094637563592</v>
       </c>
       <c r="U35">
         <v>0.4499328251574954</v>
@@ -5943,7 +5943,7 @@
         <v>0.697202021505209</v>
       </c>
       <c r="L36">
-        <v>0.6632569211443361</v>
+        <v>0.663256921144336</v>
       </c>
       <c r="M36">
         <v>0.6166996417415191</v>
@@ -5961,10 +5961,10 @@
         <v>0.5464977911854241</v>
       </c>
       <c r="R36">
-        <v>0.5421239666264142</v>
+        <v>0.542123966626414</v>
       </c>
       <c r="S36">
-        <v>0.4788702353456968</v>
+        <v>0.4788702353456969</v>
       </c>
       <c r="T36">
         <v>0.4675913548295834</v>
@@ -5976,7 +5976,7 @@
         <v>0.3900877259839652</v>
       </c>
       <c r="W36">
-        <v>0.3856322601007482</v>
+        <v>0.3856322601007484</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -6014,7 +6014,7 @@
         <v>0.7105775643949785</v>
       </c>
       <c r="L37">
-        <v>0.6687875193006947</v>
+        <v>0.6687875193006948</v>
       </c>
       <c r="M37">
         <v>0.6486068899665788</v>
@@ -6032,19 +6032,19 @@
         <v>0.5676387018948025</v>
       </c>
       <c r="R37">
-        <v>0.5433339271730812</v>
+        <v>0.5433339271730813</v>
       </c>
       <c r="S37">
         <v>0.4708273606774123</v>
       </c>
       <c r="T37">
-        <v>0.4662336394000626</v>
+        <v>0.4662336394000625</v>
       </c>
       <c r="U37">
-        <v>0.4565935502075472</v>
+        <v>0.4565935502075473</v>
       </c>
       <c r="V37">
-        <v>0.404832542639344</v>
+        <v>0.4048325426393441</v>
       </c>
       <c r="W37">
         <v>0.4007909296901546</v>
@@ -6085,7 +6085,7 @@
         <v>0.6947481514077053</v>
       </c>
       <c r="L38">
-        <v>0.6691025265480591</v>
+        <v>0.669102526548059</v>
       </c>
       <c r="M38">
         <v>0.657972019605542</v>
@@ -6100,7 +6100,7 @@
         <v>0.6221335986575874</v>
       </c>
       <c r="Q38">
-        <v>0.576812286782693</v>
+        <v>0.5768122867826929</v>
       </c>
       <c r="R38">
         <v>0.5402890068989156</v>
@@ -6112,10 +6112,10 @@
         <v>0.4941127341578576</v>
       </c>
       <c r="U38">
-        <v>0.4872121532582643</v>
+        <v>0.4872121532582642</v>
       </c>
       <c r="V38">
-        <v>0.4195071401601895</v>
+        <v>0.4195071401601894</v>
       </c>
       <c r="W38">
         <v>0.4145447814626348</v>
@@ -6162,16 +6162,16 @@
         <v>0.6542498282706737</v>
       </c>
       <c r="N39">
-        <v>0.6418668205737619</v>
+        <v>0.641866820573762</v>
       </c>
       <c r="O39">
         <v>0.6367827573368524</v>
       </c>
       <c r="P39">
-        <v>0.6349721677443324</v>
+        <v>0.6349721677443323</v>
       </c>
       <c r="Q39">
-        <v>0.5797688669262421</v>
+        <v>0.579768866926242</v>
       </c>
       <c r="R39">
         <v>0.5665931594664494</v>
@@ -6180,13 +6180,13 @@
         <v>0.5010961199055172</v>
       </c>
       <c r="T39">
-        <v>0.4971011090654105</v>
+        <v>0.4971011090654106</v>
       </c>
       <c r="U39">
         <v>0.5002211130606324</v>
       </c>
       <c r="V39">
-        <v>0.4047617986191948</v>
+        <v>0.4047617986191949</v>
       </c>
       <c r="W39">
         <v>0.421210917717858</v>
@@ -6224,7 +6224,7 @@
         <v>0.8056635462154736</v>
       </c>
       <c r="K40">
-        <v>0.7233807256863177</v>
+        <v>0.7233807256863178</v>
       </c>
       <c r="L40">
         <v>0.6791697630087786</v>
@@ -6242,13 +6242,13 @@
         <v>0.6434182485722414</v>
       </c>
       <c r="Q40">
-        <v>0.5913858758374776</v>
+        <v>0.5913858758374778</v>
       </c>
       <c r="R40">
         <v>0.5865287571923813</v>
       </c>
       <c r="S40">
-        <v>0.5103788773107115</v>
+        <v>0.5103788773107116</v>
       </c>
       <c r="T40">
         <v>0.5036749467638127</v>
@@ -6260,7 +6260,7 @@
         <v>0.4447915942496714</v>
       </c>
       <c r="W40">
-        <v>0.4412665208368312</v>
+        <v>0.4412665208368313</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -6328,10 +6328,10 @@
         <v>0.516084708584562</v>
       </c>
       <c r="V41">
-        <v>0.4406237962603132</v>
+        <v>0.4406237962603131</v>
       </c>
       <c r="W41">
-        <v>0.458390351689869</v>
+        <v>0.4583903516898691</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -6369,10 +6369,10 @@
         <v>0.7689825119458386</v>
       </c>
       <c r="L42">
-        <v>0.7040510955486253</v>
+        <v>0.7040510955486254</v>
       </c>
       <c r="M42">
-        <v>0.6979382450991687</v>
+        <v>0.6979382450991688</v>
       </c>
       <c r="N42">
         <v>0.6676885179350521</v>
@@ -6381,7 +6381,7 @@
         <v>0.6720506770589544</v>
       </c>
       <c r="P42">
-        <v>0.663639337586911</v>
+        <v>0.6636393375869108</v>
       </c>
       <c r="Q42">
         <v>0.6303157452074223</v>
@@ -6390,7 +6390,7 @@
         <v>0.6104366461885007</v>
       </c>
       <c r="S42">
-        <v>0.5456285965671512</v>
+        <v>0.5456285965671511</v>
       </c>
       <c r="T42">
         <v>0.5262713139822331</v>
@@ -6399,7 +6399,7 @@
         <v>0.5244849762656697</v>
       </c>
       <c r="V42">
-        <v>0.4476556685810625</v>
+        <v>0.4476556685810626</v>
       </c>
       <c r="W42">
         <v>0.4460129371985724</v>
@@ -6443,7 +6443,7 @@
         <v>0.730318880437695</v>
       </c>
       <c r="M43">
-        <v>0.7017928037814862</v>
+        <v>0.7017928037814861</v>
       </c>
       <c r="N43">
         <v>0.6916233806236873</v>
@@ -6452,7 +6452,7 @@
         <v>0.6769509492538811</v>
       </c>
       <c r="P43">
-        <v>0.6787897527207706</v>
+        <v>0.6787897527207705</v>
       </c>
       <c r="Q43">
         <v>0.6547352878501991</v>
@@ -6467,10 +6467,10 @@
         <v>0.5379707689051912</v>
       </c>
       <c r="U43">
-        <v>0.5421276528180131</v>
+        <v>0.542127652818013</v>
       </c>
       <c r="V43">
-        <v>0.4677748335137318</v>
+        <v>0.4677748335137317</v>
       </c>
       <c r="W43">
         <v>0.4638385591830372</v>
@@ -6526,7 +6526,7 @@
         <v>0.709513725332908</v>
       </c>
       <c r="Q44">
-        <v>0.6712510446948194</v>
+        <v>0.6712510446948193</v>
       </c>
       <c r="R44">
         <v>0.6260292273850719</v>
@@ -6600,16 +6600,16 @@
         <v>0.6696478738825816</v>
       </c>
       <c r="R45">
-        <v>0.6551509495336435</v>
+        <v>0.6551509495336434</v>
       </c>
       <c r="S45">
         <v>0.5909102709393455</v>
       </c>
       <c r="T45">
-        <v>0.5944311617965498</v>
+        <v>0.5944311617965499</v>
       </c>
       <c r="U45">
-        <v>0.5963792541255821</v>
+        <v>0.5963792541255819</v>
       </c>
       <c r="V45">
         <v>0.5251875575895789</v>
@@ -6677,7 +6677,7 @@
         <v>0.6314379329259888</v>
       </c>
       <c r="T46">
-        <v>0.6387617947427402</v>
+        <v>0.6387617947427403</v>
       </c>
       <c r="U46">
         <v>0.6321138083851513</v>
@@ -6736,22 +6736,22 @@
         <v>0.7799799381188885</v>
       </c>
       <c r="P47">
-        <v>0.7561391990146417</v>
+        <v>0.7561391990146415</v>
       </c>
       <c r="Q47">
         <v>0.7466706057867672</v>
       </c>
       <c r="R47">
-        <v>0.7171552060578203</v>
+        <v>0.7171552060578205</v>
       </c>
       <c r="S47">
         <v>0.6878510759348595</v>
       </c>
       <c r="T47">
-        <v>0.6743013754736756</v>
+        <v>0.6743013754736755</v>
       </c>
       <c r="U47">
-        <v>0.680724397528937</v>
+        <v>0.6807243975289371</v>
       </c>
       <c r="V47">
         <v>0.620067764211726</v>
@@ -6813,7 +6813,7 @@
         <v>0.7757242498897045</v>
       </c>
       <c r="R48">
-        <v>0.7539023680889848</v>
+        <v>0.7539023680889849</v>
       </c>
       <c r="S48">
         <v>0.7310607382251124</v>
@@ -6866,7 +6866,7 @@
         <v>0.9317141099470206</v>
       </c>
       <c r="L49">
-        <v>0.8839588887378526</v>
+        <v>0.8839588887378527</v>
       </c>
       <c r="M49">
         <v>0.8529344488953738</v>
